--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{4EB486B8-81C2-4836-8B05-9274435FB6E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E47AA599-1619-4F43-B9E7-5E1A576C3C57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
     <t>DLatestNBACampaignFlagIN</t>
   </si>
   <si>
-    <t>ProdLiveTest15</t>
+    <t>ProdLiveBuild1</t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E47AA599-1619-4F43-B9E7-5E1A576C3C57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A5ED2F3A-560A-41C8-AD5B-6C75950CB3A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
     <t>DLatestNBACampaignFlagIN</t>
   </si>
   <si>
-    <t>ProdLiveBuild1</t>
+    <t>ProdLiveBuild2</t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,13 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A5ED2F3A-560A-41C8-AD5B-6C75950CB3A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{FDC04300-90F6-4D02-9628-BBFEC5B19554}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1:E17"/>
@@ -63,9 +62,6 @@
     <t>Test Channel</t>
   </si>
   <si>
-    <t>OMBTA</t>
-  </si>
-  <si>
     <t>ConfigAudience</t>
   </si>
   <si>
@@ -105,7 +101,10 @@
     <t>DLatestNBACampaignFlagIN</t>
   </si>
   <si>
-    <t>ProdLiveBuild2</t>
+    <t>MD1509</t>
+  </si>
+  <si>
+    <t>ProdLiveBuild7</t>
   </si>
 </sst>
 </file>
@@ -467,7 +466,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,31 +518,31 @@
         <v>11</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -575,46 +574,34 @@
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
         <v>18</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>19</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>20</v>
       </c>
-      <c r="O2" t="s">
-        <v>21</v>
-      </c>
       <c r="P2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" t="s">
         <v>24</v>
-      </c>
-      <c r="R2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C84B9F4-5514-4F31-AE40-96F2A830C6FA}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E0FB7803-247A-47F9-A3BE-476432EDA1A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0B238C27-5926-462F-A82E-DBA6E1ECD666}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
     <t>MD1509</t>
   </si>
   <si>
-    <t>ProdLiveBuild8</t>
+    <t>ProdLiveBuild9</t>
   </si>
 </sst>
 </file>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0B238C27-5926-462F-A82E-DBA6E1ECD666}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{932B80C0-444E-405F-BAE7-BAB81068DBB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
     <t>MD1509</t>
   </si>
   <si>
-    <t>ProdLiveBuild9</t>
+    <t>ProdLiveBuild11</t>
   </si>
 </sst>
 </file>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{932B80C0-444E-405F-BAE7-BAB81068DBB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{385E3DFF-BCC5-4C4E-A40F-41F8D0876341}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
     <t>MD1509</t>
   </si>
   <si>
-    <t>ProdLiveBuild11</t>
+    <t>ProdLiveBuild15</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{385E3DFF-BCC5-4C4E-A40F-41F8D0876341}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{560F137E-3488-4BC1-8B8F-F48F51E7D1DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
     <t>MD1509</t>
   </si>
   <si>
-    <t>ProdLiveBuild15</t>
+    <t>ProdLiveBuild16</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{560F137E-3488-4BC1-8B8F-F48F51E7D1DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A1FBF431-E408-4D7B-AB2E-CFCBC37470A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
     <t>MD1509</t>
   </si>
   <si>
-    <t>ProdLiveBuild16</t>
+    <t>ProdLiveBuild17</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A1FBF431-E408-4D7B-AB2E-CFCBC37470A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6C890D2C-EB30-4EC7-A692-A2E2E6F83E12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
     <t>MD1509</t>
   </si>
   <si>
-    <t>ProdLiveBuild17</t>
+    <t>ProdLiveBuild20</t>
   </si>
 </sst>
 </file>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6C890D2C-EB30-4EC7-A692-A2E2E6F83E12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{DDAA8CCB-1D65-4C4B-9F31-A8DCF567F8C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
     <t>MD1509</t>
   </si>
   <si>
-    <t>ProdLiveBuild20</t>
+    <t>ProdLiveBuild21</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{DDAA8CCB-1D65-4C4B-9F31-A8DCF567F8C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0D56A674-A088-4F7E-8D50-FFAF21E9285C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
     <t>MD1509</t>
   </si>
   <si>
-    <t>ProdLiveBuild21</t>
+    <t>ProdLiveBuild22</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0D56A674-A088-4F7E-8D50-FFAF21E9285C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{637B0343-8155-441B-926A-E7520C8BACEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
     <t>MD1509</t>
   </si>
   <si>
-    <t>ProdLiveBuild22</t>
+    <t>ProdLiveBuild24</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{637B0343-8155-441B-926A-E7520C8BACEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E860C6B6-59A0-4711-9E30-51B0D7865745}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
     <t>MD1509</t>
   </si>
   <si>
-    <t>ProdLiveBuild24</t>
+    <t>ProdLiveBuild25</t>
   </si>
 </sst>
 </file>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E860C6B6-59A0-4711-9E30-51B0D7865745}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{40C9CD9D-4670-4BCF-9E95-D737E682D842}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
     <t>MD1509</t>
   </si>
   <si>
-    <t>ProdLiveBuild25</t>
+    <t>ProdLiveBuild26</t>
   </si>
 </sst>
 </file>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{40C9CD9D-4670-4BCF-9E95-D737E682D842}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{918D6EA0-60E2-4A4A-AD26-9414CF5EC12A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
@@ -104,7 +104,7 @@
     <t>MD1509</t>
   </si>
   <si>
-    <t>ProdLiveBuild26</t>
+    <t>ProdLiveBuild28</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{918D6EA0-60E2-4A4A-AD26-9414CF5EC12A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{16B9AAB0-0E57-4A5F-B4CE-BBFBE9263717}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
     <t>MD1509</t>
   </si>
   <si>
-    <t>ProdLiveBuild28</t>
+    <t>ProdLiveBuild29</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{16B9AAB0-0E57-4A5F-B4CE-BBFBE9263717}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{800AF05C-78E0-4E94-B244-02FCD74F6ED1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
     <t>MD1509</t>
   </si>
   <si>
-    <t>ProdLiveBuild29</t>
+    <t>ProdLiveBuild30</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{800AF05C-78E0-4E94-B244-02FCD74F6ED1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F4490534-03CC-4406-8E7C-1FF0AE15A00C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
     <t>MD1509</t>
   </si>
   <si>
-    <t>ProdLiveBuild30</t>
+    <t>ProdLiveBuild32</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F4490534-03CC-4406-8E7C-1FF0AE15A00C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{55756E8C-7AB4-4FF6-8FC8-E601F841E27A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
     <t>MD1509</t>
   </si>
   <si>
-    <t>ProdLiveBuild32</t>
+    <t>ProdLiveBuild33</t>
   </si>
 </sst>
 </file>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{55756E8C-7AB4-4FF6-8FC8-E601F841E27A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{88AC0D44-7A40-4F2D-99BB-2A4969B73F23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
     <t>MD1509</t>
   </si>
   <si>
-    <t>ProdLiveBuild33</t>
+    <t>ProdLiveBuild34</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{88AC0D44-7A40-4F2D-99BB-2A4969B73F23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C71B245C-BF24-474A-B481-56C70D22D7F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
     <t>MD1509</t>
   </si>
   <si>
-    <t>ProdLiveBuild34</t>
+    <t>ProdLiveBuild35</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C71B245C-BF24-474A-B481-56C70D22D7F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F0E3F302-F936-4102-B6D7-AA77C378801A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
     <t>MD1509</t>
   </si>
   <si>
-    <t>ProdLiveBuild35</t>
+    <t>ProdLiveBuild36</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F0E3F302-F936-4102-B6D7-AA77C378801A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A9D77CE9-B4BC-4F7A-AFD3-CABA617EEBBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1:E17"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>NBACampaignName</t>
   </si>
@@ -104,7 +105,10 @@
     <t>MD1509</t>
   </si>
   <si>
-    <t>ProdLiveBuild36</t>
+    <t>ProdLiveTest35</t>
+  </si>
+  <si>
+    <t>ProdLiveTest36</t>
   </si>
 </sst>
 </file>
@@ -463,30 +467,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F0B5D7-FA7D-4869-B85C-A65D364621F0}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" customWidth="1"/>
-    <col min="12" max="12" width="22.42578125" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1"/>
-    <col min="15" max="15" width="20" customWidth="1"/>
-    <col min="16" max="16" width="22.28515625" customWidth="1"/>
-    <col min="17" max="17" width="28.7109375" customWidth="1"/>
-    <col min="18" max="18" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="4" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="20" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="25.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -601,7 +605,24 @@
         <v>24</v>
       </c>
     </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C84B9F4-5514-4F31-AE40-96F2A830C6FA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A9D77CE9-B4BC-4F7A-AFD3-CABA617EEBBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E43C4349-C612-4E88-86FA-B998AD4E8E18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
@@ -105,10 +105,10 @@
     <t>MD1509</t>
   </si>
   <si>
-    <t>ProdLiveTest35</t>
-  </si>
-  <si>
-    <t>ProdLiveTest36</t>
+    <t>ProdLiveTest40</t>
+  </si>
+  <si>
+    <t>ProdLiveTest41</t>
   </si>
 </sst>
 </file>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E43C4349-C612-4E88-86FA-B998AD4E8E18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{CACA3135-49C1-4EE8-A4F5-69EE03D60FD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
@@ -105,10 +105,10 @@
     <t>MD1509</t>
   </si>
   <si>
-    <t>ProdLiveTest40</t>
-  </si>
-  <si>
-    <t>ProdLiveTest41</t>
+    <t>ProdLiveTest42</t>
+  </si>
+  <si>
+    <t>ProdLiveTest43</t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{CACA3135-49C1-4EE8-A4F5-69EE03D60FD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F201E49F-A067-4AEB-A8B2-F0F40A5B4EAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
@@ -105,10 +105,10 @@
     <t>MD1509</t>
   </si>
   <si>
-    <t>ProdLiveTest42</t>
-  </si>
-  <si>
-    <t>ProdLiveTest43</t>
+    <t>ProdLiveTest44</t>
+  </si>
+  <si>
+    <t>ProdLiveTest45</t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F201E49F-A067-4AEB-A8B2-F0F40A5B4EAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8EF1441C-586E-4858-8BAA-31A16EA01A20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
@@ -105,10 +105,10 @@
     <t>MD1509</t>
   </si>
   <si>
-    <t>ProdLiveTest44</t>
-  </si>
-  <si>
-    <t>ProdLiveTest45</t>
+    <t>ProdLiveTest46</t>
+  </si>
+  <si>
+    <t>ProdLiveTest47</t>
   </si>
 </sst>
 </file>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8EF1441C-586E-4858-8BAA-31A16EA01A20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{70EAF441-792F-4B27-BDF0-E92CE0DFED7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
@@ -105,10 +105,10 @@
     <t>MD1509</t>
   </si>
   <si>
-    <t>ProdLiveTest46</t>
-  </si>
-  <si>
-    <t>ProdLiveTest47</t>
+    <t>ProdLiveTest48</t>
+  </si>
+  <si>
+    <t>ProdLiveTest49</t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{70EAF441-792F-4B27-BDF0-E92CE0DFED7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{788A561F-6D3E-4933-B70E-AC97F05180AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
@@ -105,10 +105,10 @@
     <t>MD1509</t>
   </si>
   <si>
-    <t>ProdLiveTest48</t>
-  </si>
-  <si>
-    <t>ProdLiveTest49</t>
+    <t>ProdLiveTest50</t>
+  </si>
+  <si>
+    <t>ProdLiveTest51</t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{788A561F-6D3E-4933-B70E-AC97F05180AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B50C1014-4289-4F5D-A449-63E68A6A961B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
@@ -105,10 +105,10 @@
     <t>MD1509</t>
   </si>
   <si>
-    <t>ProdLiveTest50</t>
-  </si>
-  <si>
-    <t>ProdLiveTest51</t>
+    <t>ProdLiveTest54</t>
+  </si>
+  <si>
+    <t>ProdLiveTest55</t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B50C1014-4289-4F5D-A449-63E68A6A961B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BA02A458-9949-48B1-B582-A7916C4FFDFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
@@ -102,13 +102,13 @@
     <t>DLatestNBACampaignFlagIN</t>
   </si>
   <si>
+    <t>ProdLiveTest55</t>
+  </si>
+  <si>
+    <t>ProdLiveTest56</t>
+  </si>
+  <si>
     <t>MD1509</t>
-  </si>
-  <si>
-    <t>ProdLiveTest54</t>
-  </si>
-  <si>
-    <t>ProdLiveTest55</t>
   </si>
 </sst>
 </file>
@@ -469,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F0B5D7-FA7D-4869-B85C-A65D364621F0}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,13 +551,13 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -578,7 +578,7 @@
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K2" t="s">
         <v>15</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BA02A458-9949-48B1-B582-A7916C4FFDFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1F21BE29-C4A0-4AFE-BA07-12BFFB236AF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
@@ -60,9 +60,6 @@
     <t>ConfigMrkStrtgy</t>
   </si>
   <si>
-    <t>Test Channel</t>
-  </si>
-  <si>
     <t>ConfigAudience</t>
   </si>
   <si>
@@ -102,13 +99,16 @@
     <t>DLatestNBACampaignFlagIN</t>
   </si>
   <si>
-    <t>ProdLiveTest55</t>
-  </si>
-  <si>
-    <t>ProdLiveTest56</t>
-  </si>
-  <si>
     <t>MD1509</t>
+  </si>
+  <si>
+    <t>MDStrategy</t>
+  </si>
+  <si>
+    <t>ProdLiveTest58</t>
+  </si>
+  <si>
+    <t>ProdLiveTest59</t>
   </si>
 </sst>
 </file>
@@ -469,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F0B5D7-FA7D-4869-B85C-A65D364621F0}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,42 +522,42 @@
         <v>11</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -575,39 +575,39 @@
         <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
         <v>17</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>18</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>19</v>
       </c>
-      <c r="O2" t="s">
-        <v>20</v>
-      </c>
       <c r="P2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" t="s">
         <v>23</v>
-      </c>
-      <c r="R2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,16 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1F21BE29-C4A0-4AFE-BA07-12BFFB236AF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prout21\git\mccm_automation\src\main\java\Mccm\Pega\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA26B71C-2FC6-49FF-A0DF-BABF987D2A20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="10920" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -105,10 +109,10 @@
     <t>MDStrategy</t>
   </si>
   <si>
-    <t>ProdLiveTest58</t>
-  </si>
-  <si>
-    <t>ProdLiveTest59</t>
+    <t>ProdLiveTest60</t>
+  </si>
+  <si>
+    <t>ProdLiveTest61</t>
   </si>
 </sst>
 </file>
@@ -470,7 +474,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,20 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prout21\git\mccm_automation\src\main\java\Mccm\Pega\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA26B71C-2FC6-49FF-A0DF-BABF987D2A20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0FD442BF-055A-4D90-A66F-501C6CD73E05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="10920" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15390" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -109,10 +105,10 @@
     <t>MDStrategy</t>
   </si>
   <si>
-    <t>ProdLiveTest60</t>
-  </si>
-  <si>
-    <t>ProdLiveTest61</t>
+    <t>ProdLiveTest62</t>
+  </si>
+  <si>
+    <t>ProdLiveTest63</t>
   </si>
 </sst>
 </file>
@@ -474,7 +470,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0FD442BF-055A-4D90-A66F-501C6CD73E05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9695DB65-D66F-4FA4-AF52-B9AFA6B52611}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="15390" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="15420" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
@@ -105,10 +105,10 @@
     <t>MDStrategy</t>
   </si>
   <si>
-    <t>ProdLiveTest62</t>
-  </si>
-  <si>
-    <t>ProdLiveTest63</t>
+    <t>ProdLiveTest64</t>
+  </si>
+  <si>
+    <t>ProdLiveTest65</t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9695DB65-D66F-4FA4-AF52-B9AFA6B52611}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E38AA348-149A-436C-BA90-9612ADC2EC7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="15420" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="15450" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
@@ -105,10 +105,10 @@
     <t>MDStrategy</t>
   </si>
   <si>
-    <t>ProdLiveTest64</t>
-  </si>
-  <si>
-    <t>ProdLiveTest65</t>
+    <t>ProdLiveTest66</t>
+  </si>
+  <si>
+    <t>ProdLiveTest67</t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E38AA348-149A-436C-BA90-9612ADC2EC7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{67A295D8-C0E2-46A2-8DF7-BFAF23B0650A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="15450" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15480" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
@@ -105,10 +105,10 @@
     <t>MDStrategy</t>
   </si>
   <si>
-    <t>ProdLiveTest66</t>
-  </si>
-  <si>
-    <t>ProdLiveTest67</t>
+    <t>ProdLiveTest68</t>
+  </si>
+  <si>
+    <t>ProdLiveTest69</t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{67A295D8-C0E2-46A2-8DF7-BFAF23B0650A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6E546BAA-BC3F-4D01-8DA5-D04DD3CA82ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15480" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15600" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>NBACampaignName</t>
   </si>
@@ -105,10 +105,16 @@
     <t>MDStrategy</t>
   </si>
   <si>
-    <t>ProdLiveTest68</t>
-  </si>
-  <si>
-    <t>ProdLiveTest69</t>
+    <t>ProdLiveTest70</t>
+  </si>
+  <si>
+    <t>ProdLiveTest71</t>
+  </si>
+  <si>
+    <t>DMPCampCd</t>
+  </si>
+  <si>
+    <t>ProdLiveTest72</t>
   </si>
 </sst>
 </file>
@@ -467,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F0B5D7-FA7D-4869-B85C-A65D364621F0}">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,9 +497,10 @@
     <col min="16" max="16" width="22.28515625" customWidth="1" collapsed="1"/>
     <col min="17" max="17" width="28.7109375" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -548,8 +555,11 @@
       <c r="R1" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -604,8 +614,11 @@
       <c r="R2" t="s">
         <v>23</v>
       </c>
+      <c r="S2" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6E546BAA-BC3F-4D01-8DA5-D04DD3CA82ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F1917478-5DBB-4D8B-A089-F8CEA012D1AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="15600" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>NBACampaignName</t>
   </si>
@@ -105,16 +105,19 @@
     <t>MDStrategy</t>
   </si>
   <si>
-    <t>ProdLiveTest70</t>
-  </si>
-  <si>
-    <t>ProdLiveTest71</t>
-  </si>
-  <si>
     <t>DMPCampCd</t>
   </si>
   <si>
-    <t>ProdLiveTest72</t>
+    <t>ProdLiveTest75</t>
+  </si>
+  <si>
+    <t>ProdLiveTest76</t>
+  </si>
+  <si>
+    <t>ProdLiveTest77</t>
+  </si>
+  <si>
+    <t>ProdLiveTest78</t>
   </si>
 </sst>
 </file>
@@ -475,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F0B5D7-FA7D-4869-B85C-A65D364621F0}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,18 +559,18 @@
         <v>24</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -620,7 +623,10 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="S3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,16 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F1917478-5DBB-4D8B-A089-F8CEA012D1AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prout21\git\mccm_automation\src\main\java\Mccm\Pega\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7266416A-65A2-4161-BE65-842E952BCCA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="15360" windowHeight="10920" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>NBACampaignName</t>
   </si>
@@ -111,13 +115,16 @@
     <t>ProdLiveTest75</t>
   </si>
   <si>
-    <t>ProdLiveTest76</t>
-  </si>
-  <si>
-    <t>ProdLiveTest77</t>
-  </si>
-  <si>
-    <t>ProdLiveTest78</t>
+    <t>ProdLiveTest79</t>
+  </si>
+  <si>
+    <t>ProdLiveTest80</t>
+  </si>
+  <si>
+    <t>ProdLiveTest81</t>
+  </si>
+  <si>
+    <t>ProdLiveTest82</t>
   </si>
 </sst>
 </file>
@@ -478,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F0B5D7-FA7D-4869-B85C-A65D364621F0}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,7 +571,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -618,15 +625,15 @@
         <v>23</v>
       </c>
       <c r="S2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,20 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prout21\git\mccm_automation\src\main\java\Mccm\Pega\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7266416A-65A2-4161-BE65-842E952BCCA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5694E922-6E30-4735-9BF6-8FE91EEAA219}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="15360" windowHeight="10920" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15660" windowHeight="11820" firstSheet="1" activeTab="1" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="PegaTestDataDMP" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:G17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="429">
   <si>
     <t>NBACampaignName</t>
   </si>
@@ -112,29 +108,1223 @@
     <t>DMPCampCd</t>
   </si>
   <si>
-    <t>ProdLiveTest75</t>
-  </si>
-  <si>
-    <t>ProdLiveTest79</t>
-  </si>
-  <si>
-    <t>ProdLiveTest80</t>
-  </si>
-  <si>
-    <t>ProdLiveTest81</t>
-  </si>
-  <si>
-    <t>ProdLiveTest82</t>
+    <t>OutBoundCmpCd1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OutBoundCmpCd1</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd2</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd3</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd4</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd5</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd6</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd7</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd8</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd9</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd10</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd11</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd12</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd13</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd14</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd15</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd16</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd17</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd18</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd19</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd20</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd21</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd22</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd23</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd24</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd25</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd26</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd27</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd28</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd29</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd30</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd31</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd32</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd33</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd34</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd35</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd36</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd37</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd38</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd39</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd40</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd41</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd42</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd43</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd44</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd45</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd46</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd47</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd48</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd49</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd50</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd51</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd52</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd53</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd54</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd55</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd56</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd57</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd58</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd59</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd60</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd61</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd62</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd63</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd64</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd65</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd66</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd67</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd68</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd69</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd70</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd71</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd72</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd73</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd74</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd75</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd76</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd77</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd78</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd79</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd80</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd81</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd82</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd83</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd84</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd85</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd86</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd87</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd88</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd89</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd90</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd91</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd92</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd93</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd94</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd95</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd96</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd97</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd98</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd99</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd100</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd101</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd102</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd103</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd104</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd105</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd106</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd107</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd108</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd109</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd110</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd111</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd112</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd113</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd114</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd115</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd116</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd117</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd118</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd119</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd120</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd121</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd122</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd123</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd124</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd125</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd126</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd127</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd128</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd129</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd130</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd131</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd132</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd133</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd134</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd135</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd136</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd137</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd138</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd139</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd140</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd141</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd142</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd143</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd144</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd145</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd146</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd147</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd148</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd149</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd150</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd151</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd152</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd153</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd154</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd155</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd156</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd157</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd158</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd159</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd160</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd161</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd162</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd163</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd164</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd165</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd166</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd167</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd168</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd169</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd170</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd171</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd172</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd173</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd174</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd175</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd176</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd177</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd178</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd179</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd180</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd181</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd182</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd183</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd184</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd185</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd186</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd187</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd188</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd189</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd190</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd191</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd192</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd193</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd194</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd195</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd196</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd197</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd198</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd199</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd200</t>
+  </si>
+  <si>
+    <t>DMPCmpCd1</t>
+  </si>
+  <si>
+    <t>DMPCmpCd2</t>
+  </si>
+  <si>
+    <t>DMPCmpCd3</t>
+  </si>
+  <si>
+    <t>DMPCmpCd4</t>
+  </si>
+  <si>
+    <t>DMPCmpCd5</t>
+  </si>
+  <si>
+    <t>DMPCmpCd6</t>
+  </si>
+  <si>
+    <t>DMPCmpCd7</t>
+  </si>
+  <si>
+    <t>DMPCmpCd8</t>
+  </si>
+  <si>
+    <t>DMPCmpCd9</t>
+  </si>
+  <si>
+    <t>DMPCmpCd10</t>
+  </si>
+  <si>
+    <t>DMPCmpCd11</t>
+  </si>
+  <si>
+    <t>DMPCmpCd12</t>
+  </si>
+  <si>
+    <t>DMPCmpCd13</t>
+  </si>
+  <si>
+    <t>DMPCmpCd14</t>
+  </si>
+  <si>
+    <t>DMPCmpCd15</t>
+  </si>
+  <si>
+    <t>DMPCmpCd16</t>
+  </si>
+  <si>
+    <t>DMPCmpCd17</t>
+  </si>
+  <si>
+    <t>DMPCmpCd18</t>
+  </si>
+  <si>
+    <t>DMPCmpCd19</t>
+  </si>
+  <si>
+    <t>DMPCmpCd20</t>
+  </si>
+  <si>
+    <t>DMPCmpCd21</t>
+  </si>
+  <si>
+    <t>DMPCmpCd22</t>
+  </si>
+  <si>
+    <t>DMPCmpCd23</t>
+  </si>
+  <si>
+    <t>DMPCmpCd24</t>
+  </si>
+  <si>
+    <t>DMPCmpCd25</t>
+  </si>
+  <si>
+    <t>DMPCmpCd26</t>
+  </si>
+  <si>
+    <t>DMPCmpCd27</t>
+  </si>
+  <si>
+    <t>DMPCmpCd28</t>
+  </si>
+  <si>
+    <t>DMPCmpCd29</t>
+  </si>
+  <si>
+    <t>DMPCmpCd30</t>
+  </si>
+  <si>
+    <t>DMPCmpCd31</t>
+  </si>
+  <si>
+    <t>DMPCmpCd32</t>
+  </si>
+  <si>
+    <t>DMPCmpCd33</t>
+  </si>
+  <si>
+    <t>DMPCmpCd34</t>
+  </si>
+  <si>
+    <t>DMPCmpCd35</t>
+  </si>
+  <si>
+    <t>DMPCmpCd36</t>
+  </si>
+  <si>
+    <t>DMPCmpCd37</t>
+  </si>
+  <si>
+    <t>DMPCmpCd38</t>
+  </si>
+  <si>
+    <t>DMPCmpCd39</t>
+  </si>
+  <si>
+    <t>DMPCmpCd40</t>
+  </si>
+  <si>
+    <t>DMPCmpCd41</t>
+  </si>
+  <si>
+    <t>DMPCmpCd42</t>
+  </si>
+  <si>
+    <t>DMPCmpCd43</t>
+  </si>
+  <si>
+    <t>DMPCmpCd44</t>
+  </si>
+  <si>
+    <t>DMPCmpCd45</t>
+  </si>
+  <si>
+    <t>DMPCmpCd46</t>
+  </si>
+  <si>
+    <t>DMPCmpCd47</t>
+  </si>
+  <si>
+    <t>DMPCmpCd48</t>
+  </si>
+  <si>
+    <t>DMPCmpCd49</t>
+  </si>
+  <si>
+    <t>DMPCmpCd50</t>
+  </si>
+  <si>
+    <t>DMPCmpCd51</t>
+  </si>
+  <si>
+    <t>DMPCmpCd52</t>
+  </si>
+  <si>
+    <t>DMPCmpCd53</t>
+  </si>
+  <si>
+    <t>DMPCmpCd54</t>
+  </si>
+  <si>
+    <t>DMPCmpCd55</t>
+  </si>
+  <si>
+    <t>DMPCmpCd56</t>
+  </si>
+  <si>
+    <t>DMPCmpCd57</t>
+  </si>
+  <si>
+    <t>DMPCmpCd58</t>
+  </si>
+  <si>
+    <t>DMPCmpCd59</t>
+  </si>
+  <si>
+    <t>DMPCmpCd60</t>
+  </si>
+  <si>
+    <t>DMPCmpCd61</t>
+  </si>
+  <si>
+    <t>DMPCmpCd62</t>
+  </si>
+  <si>
+    <t>DMPCmpCd63</t>
+  </si>
+  <si>
+    <t>DMPCmpCd64</t>
+  </si>
+  <si>
+    <t>DMPCmpCd65</t>
+  </si>
+  <si>
+    <t>DMPCmpCd66</t>
+  </si>
+  <si>
+    <t>DMPCmpCd67</t>
+  </si>
+  <si>
+    <t>DMPCmpCd68</t>
+  </si>
+  <si>
+    <t>DMPCmpCd69</t>
+  </si>
+  <si>
+    <t>DMPCmpCd70</t>
+  </si>
+  <si>
+    <t>DMPCmpCd71</t>
+  </si>
+  <si>
+    <t>DMPCmpCd72</t>
+  </si>
+  <si>
+    <t>DMPCmpCd73</t>
+  </si>
+  <si>
+    <t>DMPCmpCd74</t>
+  </si>
+  <si>
+    <t>DMPCmpCd75</t>
+  </si>
+  <si>
+    <t>DMPCmpCd76</t>
+  </si>
+  <si>
+    <t>DMPCmpCd77</t>
+  </si>
+  <si>
+    <t>DMPCmpCd78</t>
+  </si>
+  <si>
+    <t>DMPCmpCd79</t>
+  </si>
+  <si>
+    <t>DMPCmpCd80</t>
+  </si>
+  <si>
+    <t>DMPCmpCd81</t>
+  </si>
+  <si>
+    <t>DMPCmpCd82</t>
+  </si>
+  <si>
+    <t>DMPCmpCd83</t>
+  </si>
+  <si>
+    <t>DMPCmpCd84</t>
+  </si>
+  <si>
+    <t>DMPCmpCd85</t>
+  </si>
+  <si>
+    <t>DMPCmpCd86</t>
+  </si>
+  <si>
+    <t>DMPCmpCd87</t>
+  </si>
+  <si>
+    <t>DMPCmpCd88</t>
+  </si>
+  <si>
+    <t>DMPCmpCd89</t>
+  </si>
+  <si>
+    <t>DMPCmpCd90</t>
+  </si>
+  <si>
+    <t>DMPCmpCd91</t>
+  </si>
+  <si>
+    <t>DMPCmpCd92</t>
+  </si>
+  <si>
+    <t>DMPCmpCd93</t>
+  </si>
+  <si>
+    <t>DMPCmpCd94</t>
+  </si>
+  <si>
+    <t>DMPCmpCd95</t>
+  </si>
+  <si>
+    <t>DMPCmpCd96</t>
+  </si>
+  <si>
+    <t>DMPCmpCd97</t>
+  </si>
+  <si>
+    <t>DMPCmpCd98</t>
+  </si>
+  <si>
+    <t>DMPCmpCd99</t>
+  </si>
+  <si>
+    <t>DMPCmpCd100</t>
+  </si>
+  <si>
+    <t>DMPCmpCd101</t>
+  </si>
+  <si>
+    <t>DMPCmpCd102</t>
+  </si>
+  <si>
+    <t>DMPCmpCd103</t>
+  </si>
+  <si>
+    <t>DMPCmpCd104</t>
+  </si>
+  <si>
+    <t>DMPCmpCd105</t>
+  </si>
+  <si>
+    <t>DMPCmpCd106</t>
+  </si>
+  <si>
+    <t>DMPCmpCd107</t>
+  </si>
+  <si>
+    <t>DMPCmpCd108</t>
+  </si>
+  <si>
+    <t>DMPCmpCd109</t>
+  </si>
+  <si>
+    <t>DMPCmpCd110</t>
+  </si>
+  <si>
+    <t>DMPCmpCd111</t>
+  </si>
+  <si>
+    <t>DMPCmpCd112</t>
+  </si>
+  <si>
+    <t>DMPCmpCd113</t>
+  </si>
+  <si>
+    <t>DMPCmpCd114</t>
+  </si>
+  <si>
+    <t>DMPCmpCd115</t>
+  </si>
+  <si>
+    <t>DMPCmpCd116</t>
+  </si>
+  <si>
+    <t>DMPCmpCd117</t>
+  </si>
+  <si>
+    <t>DMPCmpCd118</t>
+  </si>
+  <si>
+    <t>DMPCmpCd119</t>
+  </si>
+  <si>
+    <t>DMPCmpCd120</t>
+  </si>
+  <si>
+    <t>DMPCmpCd121</t>
+  </si>
+  <si>
+    <t>DMPCmpCd122</t>
+  </si>
+  <si>
+    <t>DMPCmpCd123</t>
+  </si>
+  <si>
+    <t>DMPCmpCd124</t>
+  </si>
+  <si>
+    <t>DMPCmpCd125</t>
+  </si>
+  <si>
+    <t>DMPCmpCd126</t>
+  </si>
+  <si>
+    <t>DMPCmpCd127</t>
+  </si>
+  <si>
+    <t>DMPCmpCd128</t>
+  </si>
+  <si>
+    <t>DMPCmpCd129</t>
+  </si>
+  <si>
+    <t>DMPCmpCd130</t>
+  </si>
+  <si>
+    <t>DMPCmpCd131</t>
+  </si>
+  <si>
+    <t>DMPCmpCd132</t>
+  </si>
+  <si>
+    <t>DMPCmpCd133</t>
+  </si>
+  <si>
+    <t>DMPCmpCd134</t>
+  </si>
+  <si>
+    <t>DMPCmpCd135</t>
+  </si>
+  <si>
+    <t>DMPCmpCd136</t>
+  </si>
+  <si>
+    <t>DMPCmpCd137</t>
+  </si>
+  <si>
+    <t>DMPCmpCd138</t>
+  </si>
+  <si>
+    <t>DMPCmpCd139</t>
+  </si>
+  <si>
+    <t>DMPCmpCd140</t>
+  </si>
+  <si>
+    <t>DMPCmpCd141</t>
+  </si>
+  <si>
+    <t>DMPCmpCd142</t>
+  </si>
+  <si>
+    <t>DMPCmpCd143</t>
+  </si>
+  <si>
+    <t>DMPCmpCd144</t>
+  </si>
+  <si>
+    <t>DMPCmpCd145</t>
+  </si>
+  <si>
+    <t>DMPCmpCd146</t>
+  </si>
+  <si>
+    <t>DMPCmpCd147</t>
+  </si>
+  <si>
+    <t>DMPCmpCd148</t>
+  </si>
+  <si>
+    <t>DMPCmpCd149</t>
+  </si>
+  <si>
+    <t>DMPCmpCd150</t>
+  </si>
+  <si>
+    <t>DMPCmpCd151</t>
+  </si>
+  <si>
+    <t>DMPCmpCd152</t>
+  </si>
+  <si>
+    <t>DMPCmpCd153</t>
+  </si>
+  <si>
+    <t>DMPCmpCd154</t>
+  </si>
+  <si>
+    <t>DMPCmpCd155</t>
+  </si>
+  <si>
+    <t>DMPCmpCd156</t>
+  </si>
+  <si>
+    <t>DMPCmpCd157</t>
+  </si>
+  <si>
+    <t>DMPCmpCd158</t>
+  </si>
+  <si>
+    <t>DMPCmpCd159</t>
+  </si>
+  <si>
+    <t>DMPCmpCd160</t>
+  </si>
+  <si>
+    <t>DMPCmpCd161</t>
+  </si>
+  <si>
+    <t>DMPCmpCd162</t>
+  </si>
+  <si>
+    <t>DMPCmpCd163</t>
+  </si>
+  <si>
+    <t>DMPCmpCd164</t>
+  </si>
+  <si>
+    <t>DMPCmpCd165</t>
+  </si>
+  <si>
+    <t>DMPCmpCd166</t>
+  </si>
+  <si>
+    <t>DMPCmpCd167</t>
+  </si>
+  <si>
+    <t>DMPCmpCd168</t>
+  </si>
+  <si>
+    <t>DMPCmpCd169</t>
+  </si>
+  <si>
+    <t>DMPCmpCd170</t>
+  </si>
+  <si>
+    <t>DMPCmpCd171</t>
+  </si>
+  <si>
+    <t>DMPCmpCd172</t>
+  </si>
+  <si>
+    <t>DMPCmpCd173</t>
+  </si>
+  <si>
+    <t>DMPCmpCd174</t>
+  </si>
+  <si>
+    <t>DMPCmpCd175</t>
+  </si>
+  <si>
+    <t>DMPCmpCd176</t>
+  </si>
+  <si>
+    <t>DMPCmpCd177</t>
+  </si>
+  <si>
+    <t>DMPCmpCd178</t>
+  </si>
+  <si>
+    <t>DMPCmpCd179</t>
+  </si>
+  <si>
+    <t>DMPCmpCd180</t>
+  </si>
+  <si>
+    <t>DMPCmpCd181</t>
+  </si>
+  <si>
+    <t>DMPCmpCd182</t>
+  </si>
+  <si>
+    <t>DMPCmpCd183</t>
+  </si>
+  <si>
+    <t>DMPCmpCd184</t>
+  </si>
+  <si>
+    <t>DMPCmpCd185</t>
+  </si>
+  <si>
+    <t>DMPCmpCd186</t>
+  </si>
+  <si>
+    <t>DMPCmpCd187</t>
+  </si>
+  <si>
+    <t>DMPCmpCd188</t>
+  </si>
+  <si>
+    <t>DMPCmpCd189</t>
+  </si>
+  <si>
+    <t>DMPCmpCd190</t>
+  </si>
+  <si>
+    <t>DMPCmpCd191</t>
+  </si>
+  <si>
+    <t>DMPCmpCd192</t>
+  </si>
+  <si>
+    <t>DMPCmpCd193</t>
+  </si>
+  <si>
+    <t>DMPCmpCd194</t>
+  </si>
+  <si>
+    <t>DMPCmpCd195</t>
+  </si>
+  <si>
+    <t>DMPCmpCd196</t>
+  </si>
+  <si>
+    <t>DMPCmpCd197</t>
+  </si>
+  <si>
+    <t>DMPCmpCd198</t>
+  </si>
+  <si>
+    <t>DMPCmpCd199</t>
+  </si>
+  <si>
+    <t>DMPCmpCd200</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -483,10 +1673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F0B5D7-FA7D-4869-B85C-A65D364621F0}">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,10 +1697,9 @@
     <col min="16" max="16" width="22.28515625" customWidth="1" collapsed="1"/>
     <col min="17" max="17" width="28.7109375" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -565,19 +1754,16 @@
       <c r="R1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -624,31 +1810,2042 @@
       <c r="R2" t="s">
         <v>23</v>
       </c>
-      <c r="S2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
-      <c r="S3" t="s">
+    </row>
+    <row r="4" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>32</v>
       </c>
     </row>
+    <row r="6" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>228</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C84B9F4-5514-4F31-AE40-96F2A830C6FA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:T201"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>428</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5694E922-6E30-4735-9BF6-8FE91EEAA219}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{79418DBF-2CD3-4CDA-8E83-F9375CD571BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="15660" windowHeight="11820" firstSheet="1" activeTab="1" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="15660" windowHeight="11820" firstSheet="1" activeTab="1" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
@@ -1675,8 +1675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F0B5D7-FA7D-4869-B85C-A65D364621F0}">
   <dimension ref="A1:S201"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{79418DBF-2CD3-4CDA-8E83-F9375CD571BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{88C7261B-5963-4827-86E2-5A725D5B7603}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="15660" windowHeight="11820" firstSheet="1" activeTab="1" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
     <sheet name="PegaTestDataDMP" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G17"/>
+  <oleSize ref="O1:R17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="438">
   <si>
     <t>NBACampaignName</t>
   </si>
@@ -99,21 +99,12 @@
     <t>DLatestNBACampaignFlagIN</t>
   </si>
   <si>
-    <t>MD1509</t>
-  </si>
-  <si>
     <t>MDStrategy</t>
   </si>
   <si>
     <t>DMPCampCd</t>
   </si>
   <si>
-    <t>OutBoundCmpCd1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> OutBoundCmpCd1</t>
-  </si>
-  <si>
     <t>OutBoundCmpCd2</t>
   </si>
   <si>
@@ -1309,6 +1300,42 @@
   </si>
   <si>
     <t>DMPCmpCd200</t>
+  </si>
+  <si>
+    <t>OMBTA</t>
+  </si>
+  <si>
+    <t>NBACampMaxAudThresholdPercent</t>
+  </si>
+  <si>
+    <t>NBACampMinAudThresholdPercent</t>
+  </si>
+  <si>
+    <t>NBACampDefaultAudCountValue</t>
+  </si>
+  <si>
+    <t>NBACampDefaultAudCountName</t>
+  </si>
+  <si>
+    <t>NBACampMaxAudThresholdPercentValue</t>
+  </si>
+  <si>
+    <t>NBACampMinAudThresholdPercentValue</t>
+  </si>
+  <si>
+    <t>NBACampMaxAudThresholdPercentName</t>
+  </si>
+  <si>
+    <t>NBACampMinAudThresholdPercentName</t>
+  </si>
+  <si>
+    <t>NBACampDefaultAudienceCount</t>
+  </si>
+  <si>
+    <t>OutBoundCmpCd201</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OutBoundCmpCd201</t>
   </si>
 </sst>
 </file>
@@ -1673,10 +1700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F0B5D7-FA7D-4869-B85C-A65D364621F0}">
-  <dimension ref="A1:S201"/>
+  <dimension ref="A1:W201"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1697,9 +1724,14 @@
     <col min="16" max="16" width="22.28515625" customWidth="1" collapsed="1"/>
     <col min="17" max="17" width="28.7109375" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="13.28515625" customWidth="1"/>
+    <col min="20" max="20" width="12.85546875" customWidth="1"/>
+    <col min="21" max="21" width="33.140625" customWidth="1"/>
+    <col min="22" max="22" width="33" customWidth="1"/>
+    <col min="23" max="23" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1734,7 +1766,7 @@
         <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>15</v>
+        <v>429</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>17</v>
@@ -1754,16 +1786,31 @@
       <c r="R1" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S1" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>436</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>437</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -1781,16 +1828,16 @@
         <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>426</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" t="s">
-        <v>16</v>
+      <c r="L2">
+        <v>10</v>
       </c>
       <c r="M2" t="s">
         <v>17</v>
@@ -1810,1000 +1857,1015 @@
       <c r="R2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S2">
+        <v>70</v>
+      </c>
+      <c r="T2">
+        <v>70</v>
+      </c>
+      <c r="U2" t="s">
+        <v>435</v>
+      </c>
+      <c r="V2" t="s">
+        <v>427</v>
+      </c>
+      <c r="W2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -2816,7 +2878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C84B9F4-5514-4F31-AE40-96F2A830C6FA}">
   <dimension ref="A1:T201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -2829,7 +2891,7 @@
   <sheetData>
     <row r="1" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
@@ -2840,10 +2902,10 @@
     </row>
     <row r="2" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -2851,997 +2913,997 @@
     </row>
     <row r="3" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{88C7261B-5963-4827-86E2-5A725D5B7603}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B438E412-8C02-4095-B19E-88C08CC00623}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="15660" windowHeight="11820" firstSheet="1" activeTab="1" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
     <sheet name="PegaTestDataDMP" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="O1:R17"/>
+  <oleSize ref="A1:F17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1702,7 +1702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F0B5D7-FA7D-4869-B85C-A65D364621F0}">
   <dimension ref="A1:W201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -2878,7 +2878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C84B9F4-5514-4F31-AE40-96F2A830C6FA}">
   <dimension ref="A1:T201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B438E412-8C02-4095-B19E-88C08CC00623}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2BBCA53E-C465-40DB-8A76-F0589B2F1A53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="15660" windowHeight="11820" firstSheet="1" activeTab="1" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
     <sheet name="PegaTestDataDMP" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:F17"/>
+  <oleSize ref="V1:Y6"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1702,8 +1702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F0B5D7-FA7D-4869-B85C-A65D364621F0}">
   <dimension ref="A1:W201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1858,10 +1858,10 @@
         <v>23</v>
       </c>
       <c r="S2">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="T2">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="U2" t="s">
         <v>435</v>
@@ -2878,7 +2878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C84B9F4-5514-4F31-AE40-96F2A830C6FA}">
   <dimension ref="A1:T201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2BBCA53E-C465-40DB-8A76-F0589B2F1A53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C7909E01-28AD-4365-AAD0-8A22F20209EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
     <sheet name="PegaTestDataDMP" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="V1:Y6"/>
+  <oleSize ref="A1:D17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="426">
   <si>
     <t>NBACampaignName</t>
   </si>
@@ -105,24 +105,6 @@
     <t>DMPCampCd</t>
   </si>
   <si>
-    <t>OutBoundCmpCd2</t>
-  </si>
-  <si>
-    <t>OutBoundCmpCd3</t>
-  </si>
-  <si>
-    <t>OutBoundCmpCd4</t>
-  </si>
-  <si>
-    <t>OutBoundCmpCd5</t>
-  </si>
-  <si>
-    <t>OutBoundCmpCd6</t>
-  </si>
-  <si>
-    <t>OutBoundCmpCd7</t>
-  </si>
-  <si>
     <t>OutBoundCmpCd8</t>
   </si>
   <si>
@@ -703,24 +685,6 @@
   </si>
   <si>
     <t>DMPCmpCd1</t>
-  </si>
-  <si>
-    <t>DMPCmpCd2</t>
-  </si>
-  <si>
-    <t>DMPCmpCd3</t>
-  </si>
-  <si>
-    <t>DMPCmpCd4</t>
-  </si>
-  <si>
-    <t>DMPCmpCd5</t>
-  </si>
-  <si>
-    <t>DMPCmpCd6</t>
-  </si>
-  <si>
-    <t>DMPCmpCd7</t>
   </si>
   <si>
     <t>DMPCmpCd8</t>
@@ -1703,7 +1667,7 @@
   <dimension ref="A1:W201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1766,7 +1730,7 @@
         <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>17</v>
@@ -1787,30 +1751,30 @@
         <v>24</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
     </row>
     <row r="2" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -1831,7 +1795,7 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -1864,13 +1828,13 @@
         <v>90</v>
       </c>
       <c r="U2" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="V2" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="W2" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
@@ -1893,981 +1857,957 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>225</v>
-      </c>
-    </row>
+    <row r="196" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2879,7 +2819,7 @@
   <dimension ref="A1:T201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A3" sqref="A3:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2902,7 +2842,7 @@
     </row>
     <row r="2" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -2913,999 +2853,975 @@
     </row>
     <row r="3" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="13" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="14" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="15" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="16" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="17" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="18" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="19" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="20" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="21" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="22" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="23" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="24" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="25" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="26" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="27" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="28" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="29" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="30" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="31" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="32" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="33" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="34" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="35" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="36" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="37" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="38" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="39" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="40" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="41" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="42" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="43" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="44" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="45" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="46" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="47" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="48" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="49" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="50" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="51" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="52" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="53" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="54" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="55" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="56" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="57" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="58" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="59" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="60" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="61" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="62" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="63" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="64" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="65" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="66" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="67" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="68" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="69" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="70" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="71" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="72" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="73" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="74" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="75" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="76" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="77" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="78" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="79" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="80" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="81" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="82" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="83" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="84" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="85" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="86" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="87" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="88" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="89" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="90" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="91" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="92" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="93" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="94" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="95" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="96" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="97" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="98" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="99" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="100" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="101" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="102" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="103" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="104" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="105" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="106" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="107" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="108" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="109" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row r="110" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row r="111" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="112" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row r="113" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    <row r="114" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="115" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    <row r="116" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="117" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+    <row r="118" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+    <row r="119" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    <row r="120" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row r="121" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    <row r="122" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+    <row r="123" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+    <row r="124" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+    <row r="125" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+    <row r="126" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+    <row r="127" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+    <row r="128" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+    <row r="129" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+    <row r="130" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+    <row r="131" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+    <row r="132" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+    <row r="133" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+    <row r="134" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+    <row r="135" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+    <row r="136" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+    <row r="137" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+    <row r="138" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+    <row r="139" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+    <row r="140" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+    <row r="141" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+    <row r="142" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+    <row r="143" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+    <row r="144" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+    <row r="145" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+    <row r="146" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+    <row r="147" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+    <row r="148" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+    <row r="149" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+    <row r="150" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+    <row r="151" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+    <row r="152" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+    <row r="153" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+    <row r="154" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+    <row r="155" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+    <row r="156" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+    <row r="157" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+    <row r="158" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+    <row r="159" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+    <row r="160" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+    <row r="161" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+    <row r="162" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+    <row r="163" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+    <row r="164" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+    <row r="165" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+    <row r="166" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+    <row r="167" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+    <row r="168" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+    <row r="169" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+    <row r="170" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+    <row r="171" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+    <row r="172" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+    <row r="173" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+    <row r="174" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+    <row r="175" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+    <row r="176" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+    <row r="177" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+    <row r="178" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+    <row r="179" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+    <row r="180" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+    <row r="181" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+    <row r="182" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+    <row r="183" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+    <row r="184" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+    <row r="185" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+    <row r="186" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+    <row r="187" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+    <row r="188" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+    <row r="189" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+    <row r="190" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+    <row r="191" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+    <row r="192" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+    <row r="193" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+    <row r="194" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+    <row r="195" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>425</v>
-      </c>
-    </row>
+    <row r="196" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C7909E01-28AD-4365-AAD0-8A22F20209EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{428707FE-20A8-4371-9061-5B8E7CD2FB27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
     <sheet name="PegaTestDataDMP" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:D17"/>
+  <oleSize ref="A1:E17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="422">
   <si>
     <t>NBACampaignName</t>
   </si>
@@ -105,12 +105,6 @@
     <t>DMPCampCd</t>
   </si>
   <si>
-    <t>OutBoundCmpCd8</t>
-  </si>
-  <si>
-    <t>OutBoundCmpCd9</t>
-  </si>
-  <si>
     <t>OutBoundCmpCd10</t>
   </si>
   <si>
@@ -685,12 +679,6 @@
   </si>
   <si>
     <t>DMPCmpCd1</t>
-  </si>
-  <si>
-    <t>DMPCmpCd8</t>
-  </si>
-  <si>
-    <t>DMPCmpCd9</t>
   </si>
   <si>
     <t>DMPCmpCd10</t>
@@ -1667,7 +1655,7 @@
   <dimension ref="A1:W201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1730,7 +1718,7 @@
         <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>17</v>
@@ -1751,30 +1739,30 @@
         <v>24</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="2" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -1795,7 +1783,7 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -1828,13 +1816,13 @@
         <v>90</v>
       </c>
       <c r="U2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="V2" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="W2" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
@@ -2792,16 +2780,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="194" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="195" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>219</v>
-      </c>
-    </row>
+    <row r="194" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="196" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="197" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="198" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2819,7 +2799,7 @@
   <dimension ref="A1:T201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2842,7 +2822,7 @@
     </row>
     <row r="2" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -2853,969 +2833,961 @@
     </row>
     <row r="3" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="44" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="45" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="46" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="47" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="48" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="49" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="50" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="51" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="52" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="53" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="54" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="55" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="56" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="57" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="58" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="59" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="60" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="61" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="62" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="63" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="64" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="65" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="66" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="67" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="68" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="69" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="70" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="71" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="72" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="73" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="74" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="75" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="76" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="77" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="78" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="79" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="80" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="81" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="82" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="83" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="84" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="85" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="86" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="87" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="88" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="89" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="90" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="91" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="92" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="93" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="94" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="95" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="96" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="97" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="98" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="99" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="100" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="101" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="102" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="103" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="104" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="105" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="106" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="107" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="108" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="109" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="110" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="111" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="112" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="113" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="114" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="115" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="116" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="117" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="118" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="119" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="120" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="121" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="122" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="123" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="124" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="125" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="126" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="127" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="128" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="129" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="130" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="131" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="132" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="133" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="134" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="135" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="136" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="137" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="138" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="139" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="140" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="141" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="142" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="143" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="144" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="145" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="146" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="147" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="148" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="149" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="150" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="151" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="152" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="153" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="154" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="155" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="156" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="157" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="158" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="159" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="160" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="161" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="162" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="163" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="164" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="165" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="166" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="167" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="168" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="169" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="170" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="171" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="172" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="173" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="174" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="175" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="176" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="177" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="178" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="179" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="180" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="181" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="182" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="183" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="184" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="185" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="186" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="187" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="188" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="189" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="190" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="191" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="192" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="193" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="194" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="195" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>413</v>
-      </c>
-    </row>
+        <v>409</v>
+      </c>
+    </row>
+    <row r="194" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="196" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="197" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="198" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{428707FE-20A8-4371-9061-5B8E7CD2FB27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{20D3B805-B627-40FA-A011-AF0DA27334D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="15660" windowHeight="11820" activeTab="1" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
     <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
     <sheet name="PegaTestDataDMP" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E17"/>
+  <oleSize ref="A1:G17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="419">
   <si>
     <t>NBACampaignName</t>
   </si>
@@ -678,9 +678,6 @@
     <t>OutBoundCmpCd200</t>
   </si>
   <si>
-    <t>DMPCmpCd1</t>
-  </si>
-  <si>
     <t>DMPCmpCd10</t>
   </si>
   <si>
@@ -1282,12 +1279,6 @@
   </si>
   <si>
     <t>NBACampDefaultAudienceCount</t>
-  </si>
-  <si>
-    <t>OutBoundCmpCd201</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> OutBoundCmpCd201</t>
   </si>
 </sst>
 </file>
@@ -1654,8 +1645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F0B5D7-FA7D-4869-B85C-A65D364621F0}">
   <dimension ref="A1:W201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1676,11 +1667,11 @@
     <col min="16" max="16" width="22.28515625" customWidth="1" collapsed="1"/>
     <col min="17" max="17" width="28.7109375" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="13.28515625" customWidth="1"/>
-    <col min="20" max="20" width="12.85546875" customWidth="1"/>
-    <col min="21" max="21" width="33.140625" customWidth="1"/>
-    <col min="22" max="22" width="33" customWidth="1"/>
-    <col min="23" max="23" width="38.7109375" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="33.140625" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="33" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="38.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
@@ -1718,7 +1709,7 @@
         <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>17</v>
@@ -1739,30 +1730,30 @@
         <v>24</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="2" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>420</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>421</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -1783,7 +1774,7 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -1816,13 +1807,13 @@
         <v>90</v>
       </c>
       <c r="U2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="V2" t="s">
+        <v>410</v>
+      </c>
+      <c r="W2" t="s">
         <v>411</v>
-      </c>
-      <c r="W2" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
@@ -2798,8 +2789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C84B9F4-5514-4F31-AE40-96F2A830C6FA}">
   <dimension ref="A1:T201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3781,11 +3772,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="193" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>409</v>
-      </c>
-    </row>
+    <row r="193" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="194" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="195" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="196" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{20D3B805-B627-40FA-A011-AF0DA27334D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:801_{83BB0FCF-5794-443C-8E42-C5A59F119310}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15660" windowHeight="11820" activeTab="1" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView windowHeight="11820" windowWidth="15660" xWindow="2340" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}" yWindow="2340"/>
   </bookViews>
   <sheets>
-    <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
-    <sheet name="PegaTestDataDMP" sheetId="2" r:id="rId2"/>
+    <sheet name="PegaTestData" r:id="rId1" sheetId="1"/>
+    <sheet name="PegaTestDataDMP" r:id="rId2" sheetId="2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G17"/>
+  <oleSize ref="A1:E17"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="411">
   <si>
     <t>NBACampaignName</t>
   </si>
@@ -105,27 +105,6 @@
     <t>DMPCampCd</t>
   </si>
   <si>
-    <t>OutBoundCmpCd10</t>
-  </si>
-  <si>
-    <t>OutBoundCmpCd11</t>
-  </si>
-  <si>
-    <t>OutBoundCmpCd12</t>
-  </si>
-  <si>
-    <t>OutBoundCmpCd13</t>
-  </si>
-  <si>
-    <t>OutBoundCmpCd14</t>
-  </si>
-  <si>
-    <t>OutBoundCmpCd15</t>
-  </si>
-  <si>
-    <t>OutBoundCmpCd16</t>
-  </si>
-  <si>
     <t>OutBoundCmpCd17</t>
   </si>
   <si>
@@ -676,9 +655,6 @@
   </si>
   <si>
     <t>OutBoundCmpCd200</t>
-  </si>
-  <si>
-    <t>DMPCmpCd10</t>
   </si>
   <si>
     <t>DMPCmpCd11</t>
@@ -1285,6 +1261,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1324,17 +1301,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1351,10 +1328,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1389,7 +1366,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1441,7 +1418,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1552,21 +1529,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1583,7 +1560,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1635,46 +1612,46 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F0B5D7-FA7D-4869-B85C-A65D364621F0}">
-  <dimension ref="A1:W201"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F0B5D7-FA7D-4869-B85C-A65D364621F0}">
+  <dimension ref="A1:X201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="4" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="22.42578125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="19.140625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="20" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="33.140625" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="33" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="38.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="2" max="4" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="38.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1709,7 +1686,7 @@
         <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>17</v>
@@ -1730,30 +1707,30 @@
         <v>24</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row customFormat="1" r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -1774,7 +1751,7 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -1807,1000 +1784,972 @@
         <v>90</v>
       </c>
       <c r="U2" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="V2" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="W2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row customFormat="1" r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="64" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="66" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="69" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="70" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="71" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="72" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="73" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="76" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="79" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="80" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="81" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="84" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="85" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="86" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="87" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="88" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="89" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="90" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="91" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="92" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="93" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="94" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="95" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="96" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="97" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="98" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="99" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="100" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="101" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="102" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="103" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="104" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="105" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="106" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="107" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="108" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="109" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="110" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="111" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="112" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="113" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="114" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="115" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="116" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="117" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="118" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="119" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="120" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="121" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="122" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="123" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="124" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="125" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="126" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="127" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="128" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="129" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="129" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="130" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="131" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="131" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="132" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="132" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="133" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="133" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="134" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="134" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="135" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="135" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="136" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="136" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="137" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="137" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="138" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="138" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="139" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="139" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="140" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="140" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="141" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="141" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="142" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="142" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="143" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="143" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="144" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="144" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="145" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="145" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="146" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="146" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="147" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="147" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="148" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="148" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="149" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="149" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="150" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="150" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="151" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="151" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="152" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="152" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="153" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="153" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="154" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="154" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="155" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="155" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="156" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="156" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="157" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="157" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="158" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="158" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="159" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="159" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="160" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="160" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="161" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="161" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="162" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="162" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="163" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="163" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="164" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="164" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="165" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="165" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="166" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="166" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="167" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="167" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="168" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="168" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="169" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="169" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="170" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="170" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="171" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="171" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="172" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="172" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="173" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="173" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="174" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="174" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="175" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="175" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="176" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="176" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="177" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="177" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="178" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="178" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="179" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="179" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="180" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="180" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="181" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="181" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="182" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="182" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="183" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="183" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="184" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="184" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="185" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="185" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="186" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="186" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="187" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="188" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="189" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="190" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="191" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="192" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="193" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="194" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="187" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="188" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="189" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="190" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="191" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="192" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="193" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="194" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="195" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="196" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="197" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="198" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="199" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="200" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="201" spans="1:23" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C84B9F4-5514-4F31-AE40-96F2A830C6FA}">
-  <dimension ref="A1:T201"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C84B9F4-5514-4F31-AE40-96F2A830C6FA}">
+  <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -2811,9 +2760,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -2822,967 +2771,967 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row customFormat="1" r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row customFormat="1" r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row customFormat="1" r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row customFormat="1" r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row customFormat="1" r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row customFormat="1" r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row customFormat="1" r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row customFormat="1" r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row customFormat="1" r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row customFormat="1" r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row customFormat="1" r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row customFormat="1" r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="8" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row customFormat="1" r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row customFormat="1" r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row customFormat="1" r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="11" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row customFormat="1" r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="12" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row customFormat="1" r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="13" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row customFormat="1" r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="14" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row customFormat="1" r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="15" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row customFormat="1" r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="16" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row customFormat="1" r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="17" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row customFormat="1" r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="18" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row customFormat="1" r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="19" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row customFormat="1" r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="20" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row customFormat="1" r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="21" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row customFormat="1" r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="22" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row customFormat="1" r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="23" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row customFormat="1" r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="24" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row customFormat="1" r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="25" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row customFormat="1" r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="26" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row customFormat="1" r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="27" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row customFormat="1" r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="28" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row customFormat="1" r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="29" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row customFormat="1" r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="30" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row customFormat="1" r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="31" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row customFormat="1" r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="32" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row customFormat="1" r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="33" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row customFormat="1" r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="34" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row customFormat="1" r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="35" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row customFormat="1" r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="36" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row customFormat="1" r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="37" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row customFormat="1" r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="38" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row customFormat="1" r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="39" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row customFormat="1" r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="40" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row customFormat="1" r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="41" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row customFormat="1" r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="42" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row customFormat="1" r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="43" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row customFormat="1" r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="44" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row customFormat="1" r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="45" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row customFormat="1" r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="46" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row customFormat="1" r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="47" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row customFormat="1" r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="48" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row customFormat="1" r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="49" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row customFormat="1" r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="50" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row customFormat="1" r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="51" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row customFormat="1" r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="52" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row customFormat="1" r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="53" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row customFormat="1" r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="54" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row customFormat="1" r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="55" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row customFormat="1" r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="56" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row customFormat="1" r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="57" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row customFormat="1" r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="58" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row customFormat="1" r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="59" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row customFormat="1" r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="60" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row customFormat="1" r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="61" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row customFormat="1" r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="62" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row customFormat="1" r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="63" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row customFormat="1" r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="64" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row customFormat="1" r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="65" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row customFormat="1" r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="66" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row customFormat="1" r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="67" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row customFormat="1" r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="68" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row customFormat="1" r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="69" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row customFormat="1" r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="70" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row customFormat="1" r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="71" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row customFormat="1" r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="72" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row customFormat="1" r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="73" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row customFormat="1" r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="74" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row customFormat="1" r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="75" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row customFormat="1" r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="76" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row customFormat="1" r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="77" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row customFormat="1" r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="78" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row customFormat="1" r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="79" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row customFormat="1" r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="80" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row customFormat="1" r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="81" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row customFormat="1" r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="82" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row customFormat="1" r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="83" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row customFormat="1" r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="84" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row customFormat="1" r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="85" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row customFormat="1" r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="86" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row customFormat="1" r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="87" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row customFormat="1" r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="88" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row customFormat="1" r="96" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="89" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row customFormat="1" r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="90" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row customFormat="1" r="98" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="91" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row customFormat="1" r="99" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="92" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row customFormat="1" r="100" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="93" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row customFormat="1" r="101" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="94" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row customFormat="1" r="102" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="95" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row customFormat="1" r="103" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="96" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row customFormat="1" r="104" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="97" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row customFormat="1" r="105" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="98" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row customFormat="1" r="106" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="99" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row customFormat="1" r="107" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="100" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row customFormat="1" r="108" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="101" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row customFormat="1" r="109" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="102" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row customFormat="1" r="110" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="103" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row customFormat="1" r="111" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="104" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row customFormat="1" r="112" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="105" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row customFormat="1" r="113" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="106" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row customFormat="1" r="114" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="107" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row customFormat="1" r="115" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="108" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    <row customFormat="1" r="116" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="109" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row customFormat="1" r="117" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="110" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    <row customFormat="1" r="118" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="111" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row customFormat="1" r="119" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="112" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+    <row customFormat="1" r="120" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="113" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+    <row customFormat="1" r="121" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="114" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    <row customFormat="1" r="122" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="115" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row customFormat="1" r="123" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="116" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    <row customFormat="1" r="124" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="117" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+    <row customFormat="1" r="125" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="118" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+    <row customFormat="1" r="126" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="119" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+    <row customFormat="1" r="127" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="120" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+    <row customFormat="1" r="128" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="121" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+    <row customFormat="1" r="129" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="122" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+    <row customFormat="1" r="130" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="123" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+    <row customFormat="1" r="131" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="124" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+    <row customFormat="1" r="132" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="125" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+    <row customFormat="1" r="133" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="126" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+    <row customFormat="1" r="134" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="127" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+    <row customFormat="1" r="135" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="128" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+    <row customFormat="1" r="136" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="129" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+    <row customFormat="1" r="137" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="130" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+    <row customFormat="1" r="138" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="131" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+    <row customFormat="1" r="139" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="132" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+    <row customFormat="1" r="140" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="133" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+    <row customFormat="1" r="141" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="134" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+    <row customFormat="1" r="142" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="135" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+    <row customFormat="1" r="143" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="136" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+    <row customFormat="1" r="144" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="137" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+    <row customFormat="1" r="145" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="138" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+    <row customFormat="1" r="146" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="139" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+    <row customFormat="1" r="147" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="140" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+    <row customFormat="1" r="148" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="141" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+    <row customFormat="1" r="149" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="142" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+    <row customFormat="1" r="150" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="143" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+    <row customFormat="1" r="151" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="144" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+    <row customFormat="1" r="152" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="145" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+    <row customFormat="1" r="153" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="146" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+    <row customFormat="1" r="154" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="147" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+    <row customFormat="1" r="155" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="148" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+    <row customFormat="1" r="156" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="149" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+    <row customFormat="1" r="157" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="150" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+    <row customFormat="1" r="158" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="151" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+    <row customFormat="1" r="159" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="152" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+    <row customFormat="1" r="160" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="153" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+    <row customFormat="1" r="161" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="154" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+    <row customFormat="1" r="162" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="155" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+    <row customFormat="1" r="163" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="156" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+    <row customFormat="1" r="164" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="157" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+    <row customFormat="1" r="165" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="158" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+    <row customFormat="1" r="166" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="159" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+    <row customFormat="1" r="167" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="160" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+    <row customFormat="1" r="168" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="161" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+    <row customFormat="1" r="169" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="162" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+    <row customFormat="1" r="170" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="163" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+    <row customFormat="1" r="171" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="164" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+    <row customFormat="1" r="172" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="165" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+    <row customFormat="1" r="173" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="166" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+    <row customFormat="1" r="174" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="167" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+    <row customFormat="1" r="175" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="168" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+    <row customFormat="1" r="176" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="169" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+    <row customFormat="1" r="177" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="170" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+    <row customFormat="1" r="178" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="171" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+    <row customFormat="1" r="179" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="172" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+    <row customFormat="1" r="180" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="173" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+    <row customFormat="1" r="181" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="174" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+    <row customFormat="1" r="182" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="175" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+    <row customFormat="1" r="183" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="176" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+    <row customFormat="1" r="184" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="177" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+    <row customFormat="1" r="185" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="178" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+    <row customFormat="1" r="186" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="179" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+    <row customFormat="1" r="187" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="180" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+    <row customFormat="1" r="188" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="181" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+    <row customFormat="1" r="189" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="182" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+    <row customFormat="1" r="190" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="183" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+    <row customFormat="1" r="191" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="184" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+    <row customFormat="1" r="192" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="185" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="186" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="187" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="188" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="189" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="190" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="191" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="192" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="193" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="193" spans="1:20" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="194" spans="1:20" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="195" spans="1:20" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="196" spans="1:20" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="197" spans="1:20" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="198" spans="1:20" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="199" spans="1:20" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="200" spans="1:20" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="201" spans="1:20" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr documentId="13_ncr:801_{83BB0FCF-5794-443C-8E42-C5A59F119310}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E02BC914-C706-4C03-8F98-202CA7BA1D18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="11820" windowWidth="15660" xWindow="2340" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}" yWindow="2340"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
   </bookViews>
   <sheets>
-    <sheet name="PegaTestData" r:id="rId1" sheetId="1"/>
-    <sheet name="PegaTestDataDMP" r:id="rId2" sheetId="2"/>
+    <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
+    <sheet name="PegaTestDataDMP" sheetId="2" r:id="rId2"/>
+    <sheet name="PegaTestDataCalcNBA" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E17"/>
+  <oleSize ref="A1:E18"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="583">
   <si>
     <t>NBACampaignName</t>
   </si>
@@ -105,39 +106,6 @@
     <t>DMPCampCd</t>
   </si>
   <si>
-    <t>OutBoundCmpCd17</t>
-  </si>
-  <si>
-    <t>OutBoundCmpCd18</t>
-  </si>
-  <si>
-    <t>OutBoundCmpCd19</t>
-  </si>
-  <si>
-    <t>OutBoundCmpCd20</t>
-  </si>
-  <si>
-    <t>OutBoundCmpCd21</t>
-  </si>
-  <si>
-    <t>OutBoundCmpCd22</t>
-  </si>
-  <si>
-    <t>OutBoundCmpCd23</t>
-  </si>
-  <si>
-    <t>OutBoundCmpCd24</t>
-  </si>
-  <si>
-    <t>OutBoundCmpCd25</t>
-  </si>
-  <si>
-    <t>OutBoundCmpCd26</t>
-  </si>
-  <si>
-    <t>OutBoundCmpCd27</t>
-  </si>
-  <si>
     <t>OutBoundCmpCd28</t>
   </si>
   <si>
@@ -657,36 +625,6 @@
     <t>OutBoundCmpCd200</t>
   </si>
   <si>
-    <t>DMPCmpCd11</t>
-  </si>
-  <si>
-    <t>DMPCmpCd12</t>
-  </si>
-  <si>
-    <t>DMPCmpCd13</t>
-  </si>
-  <si>
-    <t>DMPCmpCd14</t>
-  </si>
-  <si>
-    <t>DMPCmpCd15</t>
-  </si>
-  <si>
-    <t>DMPCmpCd16</t>
-  </si>
-  <si>
-    <t>DMPCmpCd17</t>
-  </si>
-  <si>
-    <t>DMPCmpCd18</t>
-  </si>
-  <si>
-    <t>DMPCmpCd19</t>
-  </si>
-  <si>
-    <t>DMPCmpCd20</t>
-  </si>
-  <si>
     <t>DMPCmpCd21</t>
   </si>
   <si>
@@ -1255,14 +1193,592 @@
   </si>
   <si>
     <t>NBACampDefaultAudienceCount</t>
+  </si>
+  <si>
+    <t>CalcNBAEvents</t>
+  </si>
+  <si>
+    <t>CalcNBACampCd</t>
+  </si>
+  <si>
+    <t>NBAOF</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd21</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd22</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd23</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd24</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd25</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd26</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd27</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd28</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd29</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd30</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd31</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd32</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd33</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd34</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd35</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd36</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd37</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd38</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd39</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd40</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd41</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd42</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd43</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd44</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd45</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd46</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd47</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd48</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd49</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd50</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd51</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd52</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd53</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd54</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd55</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd56</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd57</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd58</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd59</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd60</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd61</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd62</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd63</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd64</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd65</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd66</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd67</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd68</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd69</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd70</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd71</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd72</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd73</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd74</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd75</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd76</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd77</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd78</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd79</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd80</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd81</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd82</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd83</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd84</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd85</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd86</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd87</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd88</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd89</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd90</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd91</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd92</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd93</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd94</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd95</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd96</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd97</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd98</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd99</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd100</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd101</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd102</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd103</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd104</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd105</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd106</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd107</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd108</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd109</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd110</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd111</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd112</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd113</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd114</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd115</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd116</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd117</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd118</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd119</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd120</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd121</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd122</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd123</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd124</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd125</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd126</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd127</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd128</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd129</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd130</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd131</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd132</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd133</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd134</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd135</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd136</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd137</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd138</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd139</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd140</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd141</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd142</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd143</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd144</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd145</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd146</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd147</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd148</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd149</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd150</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd151</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd152</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd153</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd154</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd155</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd156</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd157</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd158</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd159</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd160</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd161</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd162</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd163</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd164</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd165</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd166</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd167</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd168</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd169</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd170</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd171</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd172</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd173</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd174</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd175</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd176</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd177</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd178</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd179</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd180</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd181</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd182</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd183</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd184</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd185</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd186</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd187</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd188</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd189</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd190</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd191</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd192</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd193</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd194</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd195</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd196</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd197</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd198</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd199</t>
+  </si>
+  <si>
+    <t>CalcNBACmpCd200</t>
+  </si>
+  <si>
+    <t>Internal_REST_URL_OSF</t>
+  </si>
+  <si>
+    <t>OSFDirection</t>
+  </si>
+  <si>
+    <t>OSFChannel</t>
+  </si>
+  <si>
+    <t>OSFContainerName</t>
+  </si>
+  <si>
+    <t>Internal_REST_URL_OSFValue</t>
+  </si>
+  <si>
+    <t>https://10.0.4.159:8002/prweb/PRRestService/PegaMKTContainer/V2/Container</t>
+  </si>
+  <si>
+    <t>OSFDirectionValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSFChannelValue </t>
+  </si>
+  <si>
+    <t>OSF</t>
+  </si>
+  <si>
+    <t>Inbound</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1272,6 +1788,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1300,18 +1824,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1328,10 +1855,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1366,7 +1893,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1418,7 +1945,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1529,21 +2056,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1560,7 +2087,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1612,46 +2139,46 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F0B5D7-FA7D-4869-B85C-A65D364621F0}">
-  <dimension ref="A1:X201"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F0B5D7-FA7D-4869-B85C-A65D364621F0}">
+  <dimension ref="A1:W201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="2" max="4" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="33.140625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="38.7109375" collapsed="true"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="4" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="20" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="33.140625" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="33" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="38.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1686,7 +2213,7 @@
         <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>17</v>
@@ -1707,30 +2234,30 @@
         <v>24</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row customFormat="1" r="2" spans="1:23" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -1751,7 +2278,7 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -1784,972 +2311,928 @@
         <v>90</v>
       </c>
       <c r="U2" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="V2" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="W2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row customFormat="1" r="3" spans="1:23" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row customFormat="1" r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row customFormat="1" r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row customFormat="1" r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row customFormat="1" r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row customFormat="1" r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row customFormat="1" r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row customFormat="1" r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row customFormat="1" r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row customFormat="1" r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row customFormat="1" r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row customFormat="1" r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row customFormat="1" r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row customFormat="1" r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row customFormat="1" r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row customFormat="1" r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row customFormat="1" r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row customFormat="1" r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row customFormat="1" r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row customFormat="1" r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>46</v>
       </c>
     </row>
-    <row customFormat="1" r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>47</v>
       </c>
     </row>
-    <row customFormat="1" r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>48</v>
       </c>
     </row>
-    <row customFormat="1" r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row customFormat="1" r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>50</v>
       </c>
     </row>
-    <row customFormat="1" r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>51</v>
       </c>
     </row>
-    <row customFormat="1" r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row customFormat="1" r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>53</v>
       </c>
     </row>
-    <row customFormat="1" r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>54</v>
       </c>
     </row>
-    <row customFormat="1" r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>55</v>
       </c>
     </row>
-    <row customFormat="1" r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>56</v>
       </c>
     </row>
-    <row customFormat="1" r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row customFormat="1" r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>58</v>
       </c>
     </row>
-    <row customFormat="1" r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>59</v>
       </c>
     </row>
-    <row customFormat="1" r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>60</v>
       </c>
     </row>
-    <row customFormat="1" r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>61</v>
       </c>
     </row>
-    <row customFormat="1" r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row customFormat="1" r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>63</v>
       </c>
     </row>
-    <row customFormat="1" r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>64</v>
       </c>
     </row>
-    <row customFormat="1" r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>65</v>
       </c>
     </row>
-    <row customFormat="1" r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>66</v>
       </c>
     </row>
-    <row customFormat="1" r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>67</v>
       </c>
     </row>
-    <row customFormat="1" r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>68</v>
       </c>
     </row>
-    <row customFormat="1" r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>69</v>
       </c>
     </row>
-    <row customFormat="1" r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>70</v>
       </c>
     </row>
-    <row customFormat="1" r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>71</v>
       </c>
     </row>
-    <row customFormat="1" r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>72</v>
       </c>
     </row>
-    <row customFormat="1" r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>73</v>
       </c>
     </row>
-    <row customFormat="1" r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>74</v>
       </c>
     </row>
-    <row customFormat="1" r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>75</v>
       </c>
     </row>
-    <row customFormat="1" r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>76</v>
       </c>
     </row>
-    <row customFormat="1" r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>77</v>
       </c>
     </row>
-    <row customFormat="1" r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>78</v>
       </c>
     </row>
-    <row customFormat="1" r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>79</v>
       </c>
     </row>
-    <row customFormat="1" r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>80</v>
       </c>
     </row>
-    <row customFormat="1" r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>81</v>
       </c>
     </row>
-    <row customFormat="1" r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>82</v>
       </c>
     </row>
-    <row customFormat="1" r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>83</v>
       </c>
     </row>
-    <row customFormat="1" r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>84</v>
       </c>
     </row>
-    <row customFormat="1" r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>85</v>
       </c>
     </row>
-    <row customFormat="1" r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>86</v>
       </c>
     </row>
-    <row customFormat="1" r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>87</v>
       </c>
     </row>
-    <row customFormat="1" r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>88</v>
       </c>
     </row>
-    <row customFormat="1" r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>89</v>
       </c>
     </row>
-    <row customFormat="1" r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>90</v>
       </c>
     </row>
-    <row customFormat="1" r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>91</v>
       </c>
     </row>
-    <row customFormat="1" r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>92</v>
       </c>
     </row>
-    <row customFormat="1" r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>93</v>
       </c>
     </row>
-    <row customFormat="1" r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>94</v>
       </c>
     </row>
-    <row customFormat="1" r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>95</v>
       </c>
     </row>
-    <row customFormat="1" r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>96</v>
       </c>
     </row>
-    <row customFormat="1" r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>97</v>
       </c>
     </row>
-    <row customFormat="1" r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>98</v>
       </c>
     </row>
-    <row customFormat="1" r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>99</v>
       </c>
     </row>
-    <row customFormat="1" r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>100</v>
       </c>
     </row>
-    <row customFormat="1" r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>101</v>
       </c>
     </row>
-    <row customFormat="1" r="78" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>102</v>
       </c>
     </row>
-    <row customFormat="1" r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>103</v>
       </c>
     </row>
-    <row customFormat="1" r="80" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>104</v>
       </c>
     </row>
-    <row customFormat="1" r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>105</v>
       </c>
     </row>
-    <row customFormat="1" r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>106</v>
       </c>
     </row>
-    <row customFormat="1" r="83" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>107</v>
       </c>
     </row>
-    <row customFormat="1" r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>108</v>
       </c>
     </row>
-    <row customFormat="1" r="85" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>109</v>
       </c>
     </row>
-    <row customFormat="1" r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>110</v>
       </c>
     </row>
-    <row customFormat="1" r="87" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>111</v>
       </c>
     </row>
-    <row customFormat="1" r="88" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>112</v>
       </c>
     </row>
-    <row customFormat="1" r="89" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>113</v>
       </c>
     </row>
-    <row customFormat="1" r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>114</v>
       </c>
     </row>
-    <row customFormat="1" r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>115</v>
       </c>
     </row>
-    <row customFormat="1" r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>116</v>
       </c>
     </row>
-    <row customFormat="1" r="93" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>117</v>
       </c>
     </row>
-    <row customFormat="1" r="94" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>118</v>
       </c>
     </row>
-    <row customFormat="1" r="95" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>119</v>
       </c>
     </row>
-    <row customFormat="1" r="96" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>120</v>
       </c>
     </row>
-    <row customFormat="1" r="97" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>121</v>
       </c>
     </row>
-    <row customFormat="1" r="98" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>122</v>
       </c>
     </row>
-    <row customFormat="1" r="99" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>123</v>
       </c>
     </row>
-    <row customFormat="1" r="100" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>124</v>
       </c>
     </row>
-    <row customFormat="1" r="101" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>125</v>
       </c>
     </row>
-    <row customFormat="1" r="102" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>126</v>
       </c>
     </row>
-    <row customFormat="1" r="103" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>127</v>
       </c>
     </row>
-    <row customFormat="1" r="104" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>128</v>
       </c>
     </row>
-    <row customFormat="1" r="105" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>129</v>
       </c>
     </row>
-    <row customFormat="1" r="106" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>130</v>
       </c>
     </row>
-    <row customFormat="1" r="107" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>131</v>
       </c>
     </row>
-    <row customFormat="1" r="108" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>132</v>
       </c>
     </row>
-    <row customFormat="1" r="109" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>133</v>
       </c>
     </row>
-    <row customFormat="1" r="110" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>134</v>
       </c>
     </row>
-    <row customFormat="1" r="111" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>135</v>
       </c>
     </row>
-    <row customFormat="1" r="112" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>136</v>
       </c>
     </row>
-    <row customFormat="1" r="113" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>137</v>
       </c>
     </row>
-    <row customFormat="1" r="114" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>138</v>
       </c>
     </row>
-    <row customFormat="1" r="115" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>139</v>
       </c>
     </row>
-    <row customFormat="1" r="116" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>140</v>
       </c>
     </row>
-    <row customFormat="1" r="117" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>141</v>
       </c>
     </row>
-    <row customFormat="1" r="118" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>142</v>
       </c>
     </row>
-    <row customFormat="1" r="119" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>143</v>
       </c>
     </row>
-    <row customFormat="1" r="120" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>144</v>
       </c>
     </row>
-    <row customFormat="1" r="121" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>145</v>
       </c>
     </row>
-    <row customFormat="1" r="122" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>146</v>
       </c>
     </row>
-    <row customFormat="1" r="123" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>147</v>
       </c>
     </row>
-    <row customFormat="1" r="124" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>148</v>
       </c>
     </row>
-    <row customFormat="1" r="125" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>149</v>
       </c>
     </row>
-    <row customFormat="1" r="126" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>150</v>
       </c>
     </row>
-    <row customFormat="1" r="127" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>151</v>
       </c>
     </row>
-    <row customFormat="1" r="128" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>152</v>
       </c>
     </row>
-    <row customFormat="1" r="129" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>153</v>
       </c>
     </row>
-    <row customFormat="1" r="130" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>154</v>
       </c>
     </row>
-    <row customFormat="1" r="131" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>155</v>
       </c>
     </row>
-    <row customFormat="1" r="132" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>156</v>
       </c>
     </row>
-    <row customFormat="1" r="133" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>157</v>
       </c>
     </row>
-    <row customFormat="1" r="134" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>158</v>
       </c>
     </row>
-    <row customFormat="1" r="135" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>159</v>
       </c>
     </row>
-    <row customFormat="1" r="136" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>160</v>
       </c>
     </row>
-    <row customFormat="1" r="137" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>161</v>
       </c>
     </row>
-    <row customFormat="1" r="138" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>162</v>
       </c>
     </row>
-    <row customFormat="1" r="139" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>163</v>
       </c>
     </row>
-    <row customFormat="1" r="140" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>164</v>
       </c>
     </row>
-    <row customFormat="1" r="141" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>165</v>
       </c>
     </row>
-    <row customFormat="1" r="142" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>166</v>
       </c>
     </row>
-    <row customFormat="1" r="143" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>167</v>
       </c>
     </row>
-    <row customFormat="1" r="144" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>168</v>
       </c>
     </row>
-    <row customFormat="1" r="145" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>169</v>
       </c>
     </row>
-    <row customFormat="1" r="146" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>170</v>
       </c>
     </row>
-    <row customFormat="1" r="147" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>171</v>
       </c>
     </row>
-    <row customFormat="1" r="148" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>172</v>
       </c>
     </row>
-    <row customFormat="1" r="149" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>173</v>
       </c>
     </row>
-    <row customFormat="1" r="150" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>174</v>
       </c>
     </row>
-    <row customFormat="1" r="151" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>175</v>
       </c>
     </row>
-    <row customFormat="1" r="152" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>176</v>
       </c>
     </row>
-    <row customFormat="1" r="153" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>177</v>
       </c>
     </row>
-    <row customFormat="1" r="154" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>178</v>
       </c>
     </row>
-    <row customFormat="1" r="155" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>179</v>
       </c>
     </row>
-    <row customFormat="1" r="156" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>180</v>
       </c>
     </row>
-    <row customFormat="1" r="157" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>181</v>
       </c>
     </row>
-    <row customFormat="1" r="158" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>182</v>
       </c>
     </row>
-    <row customFormat="1" r="159" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>183</v>
       </c>
     </row>
-    <row customFormat="1" r="160" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>184</v>
       </c>
     </row>
-    <row customFormat="1" r="161" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>185</v>
       </c>
     </row>
-    <row customFormat="1" r="162" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>186</v>
       </c>
     </row>
-    <row customFormat="1" r="163" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>187</v>
       </c>
     </row>
-    <row customFormat="1" r="164" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>188</v>
       </c>
     </row>
-    <row customFormat="1" r="165" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>189</v>
       </c>
     </row>
-    <row customFormat="1" r="166" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>190</v>
       </c>
     </row>
-    <row customFormat="1" r="167" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>191</v>
       </c>
     </row>
-    <row customFormat="1" r="168" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>192</v>
       </c>
     </row>
-    <row customFormat="1" r="169" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>193</v>
       </c>
     </row>
-    <row customFormat="1" r="170" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>194</v>
       </c>
     </row>
-    <row customFormat="1" r="171" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>195</v>
       </c>
     </row>
-    <row customFormat="1" r="172" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>196</v>
       </c>
     </row>
-    <row customFormat="1" r="173" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>197</v>
       </c>
     </row>
-    <row customFormat="1" r="174" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>198</v>
       </c>
     </row>
-    <row customFormat="1" r="175" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>199</v>
       </c>
     </row>
-    <row customFormat="1" r="176" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row customFormat="1" r="177" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row customFormat="1" r="178" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row customFormat="1" r="179" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row customFormat="1" r="180" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row customFormat="1" r="181" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row customFormat="1" r="182" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row customFormat="1" r="183" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row customFormat="1" r="184" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row customFormat="1" r="185" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row customFormat="1" r="186" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row customFormat="1" r="187" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="188" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="189" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="190" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="191" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="192" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="193" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="194" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="195" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="196" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="197" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="198" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="199" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="200" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="201" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row r="176" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C84B9F4-5514-4F31-AE40-96F2A830C6FA}">
-  <dimension ref="A1:D201"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C84B9F4-5514-4F31-AE40-96F2A830C6FA}">
+  <dimension ref="A1:T201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A3" sqref="A3:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -2760,9 +3243,9 @@
         <v>15</v>
       </c>
     </row>
-    <row customFormat="1" r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -2771,967 +3254,1939 @@
         <v>16</v>
       </c>
     </row>
-    <row customFormat="1" r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>211</v>
       </c>
     </row>
-    <row customFormat="1" r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="14" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>212</v>
       </c>
     </row>
-    <row customFormat="1" r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="15" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>213</v>
       </c>
     </row>
-    <row customFormat="1" r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="16" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>214</v>
       </c>
     </row>
-    <row customFormat="1" r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="17" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>215</v>
       </c>
     </row>
-    <row customFormat="1" r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="18" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>216</v>
       </c>
     </row>
-    <row customFormat="1" r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="19" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>217</v>
       </c>
     </row>
-    <row customFormat="1" r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="20" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>218</v>
       </c>
     </row>
-    <row customFormat="1" r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="21" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>219</v>
       </c>
     </row>
-    <row customFormat="1" r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="22" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>220</v>
       </c>
     </row>
-    <row customFormat="1" r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="23" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>221</v>
       </c>
     </row>
-    <row customFormat="1" r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="24" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>222</v>
       </c>
     </row>
-    <row customFormat="1" r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="25" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>223</v>
       </c>
     </row>
-    <row customFormat="1" r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="26" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>224</v>
       </c>
     </row>
-    <row customFormat="1" r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="27" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>225</v>
       </c>
     </row>
-    <row customFormat="1" r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="28" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>226</v>
       </c>
     </row>
-    <row customFormat="1" r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="29" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>227</v>
       </c>
     </row>
-    <row customFormat="1" r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="30" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>228</v>
       </c>
     </row>
-    <row customFormat="1" r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="31" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>229</v>
       </c>
     </row>
-    <row customFormat="1" r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="32" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>230</v>
       </c>
     </row>
-    <row customFormat="1" r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="33" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>231</v>
       </c>
     </row>
-    <row customFormat="1" r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="34" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>232</v>
       </c>
     </row>
-    <row customFormat="1" r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="35" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>233</v>
       </c>
     </row>
-    <row customFormat="1" r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="36" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>234</v>
       </c>
     </row>
-    <row customFormat="1" r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="37" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>235</v>
       </c>
     </row>
-    <row customFormat="1" r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="38" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>236</v>
       </c>
     </row>
-    <row customFormat="1" r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="39" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>237</v>
       </c>
     </row>
-    <row customFormat="1" r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="40" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>238</v>
       </c>
     </row>
-    <row customFormat="1" r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="41" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>239</v>
       </c>
     </row>
-    <row customFormat="1" r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="42" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>240</v>
       </c>
     </row>
-    <row customFormat="1" r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="43" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>241</v>
       </c>
     </row>
-    <row customFormat="1" r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="44" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>242</v>
       </c>
     </row>
-    <row customFormat="1" r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="45" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>243</v>
       </c>
     </row>
-    <row customFormat="1" r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="46" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>244</v>
       </c>
     </row>
-    <row customFormat="1" r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="47" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>245</v>
       </c>
     </row>
-    <row customFormat="1" r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="48" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>246</v>
       </c>
     </row>
-    <row customFormat="1" r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="49" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>247</v>
       </c>
     </row>
-    <row customFormat="1" r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="50" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>248</v>
       </c>
     </row>
-    <row customFormat="1" r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="51" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>249</v>
       </c>
     </row>
-    <row customFormat="1" r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="52" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>250</v>
       </c>
     </row>
-    <row customFormat="1" r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="53" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>251</v>
       </c>
     </row>
-    <row customFormat="1" r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="54" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>252</v>
       </c>
     </row>
-    <row customFormat="1" r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="55" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>253</v>
       </c>
     </row>
-    <row customFormat="1" r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="56" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>254</v>
       </c>
     </row>
-    <row customFormat="1" r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="57" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>255</v>
       </c>
     </row>
-    <row customFormat="1" r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="58" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>256</v>
       </c>
     </row>
-    <row customFormat="1" r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="59" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>257</v>
       </c>
     </row>
-    <row customFormat="1" r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="60" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>258</v>
       </c>
     </row>
-    <row customFormat="1" r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="61" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>259</v>
       </c>
     </row>
-    <row customFormat="1" r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="62" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>260</v>
       </c>
     </row>
-    <row customFormat="1" r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="63" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>261</v>
       </c>
     </row>
-    <row customFormat="1" r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="64" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>262</v>
       </c>
     </row>
-    <row customFormat="1" r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="65" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>263</v>
       </c>
     </row>
-    <row customFormat="1" r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="66" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>264</v>
       </c>
     </row>
-    <row customFormat="1" r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="67" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>265</v>
       </c>
     </row>
-    <row customFormat="1" r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="68" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>266</v>
       </c>
     </row>
-    <row customFormat="1" r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="69" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>267</v>
       </c>
     </row>
-    <row customFormat="1" r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="70" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>268</v>
       </c>
     </row>
-    <row customFormat="1" r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="71" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>269</v>
       </c>
     </row>
-    <row customFormat="1" r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="72" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>270</v>
       </c>
     </row>
-    <row customFormat="1" r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="73" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>271</v>
       </c>
     </row>
-    <row customFormat="1" r="64" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="74" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>272</v>
       </c>
     </row>
-    <row customFormat="1" r="65" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="75" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>273</v>
       </c>
     </row>
-    <row customFormat="1" r="66" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="76" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>274</v>
       </c>
     </row>
-    <row customFormat="1" r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="77" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>275</v>
       </c>
     </row>
-    <row customFormat="1" r="68" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="78" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>276</v>
       </c>
     </row>
-    <row customFormat="1" r="69" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="79" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>277</v>
       </c>
     </row>
-    <row customFormat="1" r="70" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="80" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>278</v>
       </c>
     </row>
-    <row customFormat="1" r="71" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="81" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>279</v>
       </c>
     </row>
-    <row customFormat="1" r="72" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="82" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>280</v>
       </c>
     </row>
-    <row customFormat="1" r="73" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="83" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>281</v>
       </c>
     </row>
-    <row customFormat="1" r="74" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="84" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>282</v>
       </c>
     </row>
-    <row customFormat="1" r="75" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="85" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>283</v>
       </c>
     </row>
-    <row customFormat="1" r="76" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="86" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>284</v>
       </c>
     </row>
-    <row customFormat="1" r="77" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="87" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>285</v>
       </c>
     </row>
-    <row customFormat="1" r="78" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="88" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>286</v>
       </c>
     </row>
-    <row customFormat="1" r="79" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="89" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>287</v>
       </c>
     </row>
-    <row customFormat="1" r="80" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="90" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>288</v>
       </c>
     </row>
-    <row customFormat="1" r="81" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="91" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>289</v>
       </c>
     </row>
-    <row customFormat="1" r="82" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="92" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>290</v>
       </c>
     </row>
-    <row customFormat="1" r="83" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="93" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>291</v>
       </c>
     </row>
-    <row customFormat="1" r="84" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="94" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>292</v>
       </c>
     </row>
-    <row customFormat="1" r="85" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="95" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>293</v>
       </c>
     </row>
-    <row customFormat="1" r="86" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="96" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>294</v>
       </c>
     </row>
-    <row customFormat="1" r="87" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="97" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>295</v>
       </c>
     </row>
-    <row customFormat="1" r="88" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="98" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>296</v>
       </c>
     </row>
-    <row customFormat="1" r="89" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="99" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>297</v>
       </c>
     </row>
-    <row customFormat="1" r="90" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="100" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>298</v>
       </c>
     </row>
-    <row customFormat="1" r="91" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="101" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>299</v>
       </c>
     </row>
-    <row customFormat="1" r="92" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="102" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>300</v>
       </c>
     </row>
-    <row customFormat="1" r="93" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="103" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>301</v>
       </c>
     </row>
-    <row customFormat="1" r="94" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="104" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>302</v>
       </c>
     </row>
-    <row customFormat="1" r="95" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="105" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>303</v>
       </c>
     </row>
-    <row customFormat="1" r="96" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="106" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>304</v>
       </c>
     </row>
-    <row customFormat="1" r="97" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="107" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>305</v>
       </c>
     </row>
-    <row customFormat="1" r="98" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="108" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>306</v>
       </c>
     </row>
-    <row customFormat="1" r="99" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="109" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>307</v>
       </c>
     </row>
-    <row customFormat="1" r="100" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="110" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>308</v>
       </c>
     </row>
-    <row customFormat="1" r="101" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="111" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>309</v>
       </c>
     </row>
-    <row customFormat="1" r="102" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="112" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>310</v>
       </c>
     </row>
-    <row customFormat="1" r="103" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="113" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>311</v>
       </c>
     </row>
-    <row customFormat="1" r="104" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row r="114" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>312</v>
       </c>
     </row>
-    <row customFormat="1" r="105" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row r="115" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>313</v>
       </c>
     </row>
-    <row customFormat="1" r="106" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="116" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>314</v>
       </c>
     </row>
-    <row customFormat="1" r="107" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row r="117" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>315</v>
       </c>
     </row>
-    <row customFormat="1" r="108" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    <row r="118" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>316</v>
       </c>
     </row>
-    <row customFormat="1" r="109" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="119" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>317</v>
       </c>
     </row>
-    <row customFormat="1" r="110" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    <row r="120" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>318</v>
       </c>
     </row>
-    <row customFormat="1" r="111" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="121" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>319</v>
       </c>
     </row>
-    <row customFormat="1" r="112" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+    <row r="122" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>320</v>
       </c>
     </row>
-    <row customFormat="1" r="113" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+    <row r="123" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>321</v>
       </c>
     </row>
-    <row customFormat="1" r="114" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    <row r="124" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>322</v>
       </c>
     </row>
-    <row customFormat="1" r="115" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row r="125" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>323</v>
       </c>
     </row>
-    <row customFormat="1" r="116" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    <row r="126" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>324</v>
       </c>
     </row>
-    <row customFormat="1" r="117" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+    <row r="127" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>325</v>
       </c>
     </row>
-    <row customFormat="1" r="118" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+    <row r="128" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>326</v>
       </c>
     </row>
-    <row customFormat="1" r="119" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+    <row r="129" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>327</v>
       </c>
     </row>
-    <row customFormat="1" r="120" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+    <row r="130" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>328</v>
       </c>
     </row>
-    <row customFormat="1" r="121" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+    <row r="131" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>329</v>
       </c>
     </row>
-    <row customFormat="1" r="122" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+    <row r="132" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>330</v>
       </c>
     </row>
-    <row customFormat="1" r="123" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+    <row r="133" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>331</v>
       </c>
     </row>
-    <row customFormat="1" r="124" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+    <row r="134" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>332</v>
       </c>
     </row>
-    <row customFormat="1" r="125" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+    <row r="135" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>333</v>
       </c>
     </row>
-    <row customFormat="1" r="126" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+    <row r="136" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>334</v>
       </c>
     </row>
-    <row customFormat="1" r="127" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+    <row r="137" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>335</v>
       </c>
     </row>
-    <row customFormat="1" r="128" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+    <row r="138" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>336</v>
       </c>
     </row>
-    <row customFormat="1" r="129" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+    <row r="139" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>337</v>
       </c>
     </row>
-    <row customFormat="1" r="130" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+    <row r="140" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>338</v>
       </c>
     </row>
-    <row customFormat="1" r="131" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+    <row r="141" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>339</v>
       </c>
     </row>
-    <row customFormat="1" r="132" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+    <row r="142" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>340</v>
       </c>
     </row>
-    <row customFormat="1" r="133" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+    <row r="143" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>341</v>
       </c>
     </row>
-    <row customFormat="1" r="134" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+    <row r="144" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>342</v>
       </c>
     </row>
-    <row customFormat="1" r="135" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+    <row r="145" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>343</v>
       </c>
     </row>
-    <row customFormat="1" r="136" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+    <row r="146" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>344</v>
       </c>
     </row>
-    <row customFormat="1" r="137" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+    <row r="147" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>345</v>
       </c>
     </row>
-    <row customFormat="1" r="138" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+    <row r="148" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>346</v>
       </c>
     </row>
-    <row customFormat="1" r="139" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+    <row r="149" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>347</v>
       </c>
     </row>
-    <row customFormat="1" r="140" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+    <row r="150" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>348</v>
       </c>
     </row>
-    <row customFormat="1" r="141" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+    <row r="151" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>349</v>
       </c>
     </row>
-    <row customFormat="1" r="142" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+    <row r="152" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>350</v>
       </c>
     </row>
-    <row customFormat="1" r="143" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+    <row r="153" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>351</v>
       </c>
     </row>
-    <row customFormat="1" r="144" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+    <row r="154" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>352</v>
       </c>
     </row>
-    <row customFormat="1" r="145" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+    <row r="155" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>353</v>
       </c>
     </row>
-    <row customFormat="1" r="146" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+    <row r="156" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>354</v>
       </c>
     </row>
-    <row customFormat="1" r="147" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+    <row r="157" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>355</v>
       </c>
     </row>
-    <row customFormat="1" r="148" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+    <row r="158" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>356</v>
       </c>
     </row>
-    <row customFormat="1" r="149" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+    <row r="159" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>357</v>
       </c>
     </row>
-    <row customFormat="1" r="150" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+    <row r="160" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>358</v>
       </c>
     </row>
-    <row customFormat="1" r="151" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+    <row r="161" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>359</v>
       </c>
     </row>
-    <row customFormat="1" r="152" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+    <row r="162" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>360</v>
       </c>
     </row>
-    <row customFormat="1" r="153" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+    <row r="163" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>361</v>
       </c>
     </row>
-    <row customFormat="1" r="154" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+    <row r="164" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>362</v>
       </c>
     </row>
-    <row customFormat="1" r="155" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+    <row r="165" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>363</v>
       </c>
     </row>
-    <row customFormat="1" r="156" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+    <row r="166" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>364</v>
       </c>
     </row>
-    <row customFormat="1" r="157" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+    <row r="167" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>365</v>
       </c>
     </row>
-    <row customFormat="1" r="158" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+    <row r="168" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>366</v>
       </c>
     </row>
-    <row customFormat="1" r="159" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+    <row r="169" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>367</v>
       </c>
     </row>
-    <row customFormat="1" r="160" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+    <row r="170" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>368</v>
       </c>
     </row>
-    <row customFormat="1" r="161" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+    <row r="171" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>369</v>
       </c>
     </row>
-    <row customFormat="1" r="162" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+    <row r="172" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>370</v>
       </c>
     </row>
-    <row customFormat="1" r="163" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+    <row r="173" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>371</v>
       </c>
     </row>
-    <row customFormat="1" r="164" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+    <row r="174" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
         <v>372</v>
       </c>
     </row>
-    <row customFormat="1" r="165" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+    <row r="175" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>373</v>
       </c>
     </row>
-    <row customFormat="1" r="166" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+    <row r="176" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>374</v>
       </c>
     </row>
-    <row customFormat="1" r="167" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+    <row r="177" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>375</v>
       </c>
     </row>
-    <row customFormat="1" r="168" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+    <row r="178" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>376</v>
       </c>
     </row>
-    <row customFormat="1" r="169" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+    <row r="179" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>377</v>
       </c>
     </row>
-    <row customFormat="1" r="170" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+    <row r="180" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>378</v>
       </c>
     </row>
-    <row customFormat="1" r="171" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+    <row r="181" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>379</v>
       </c>
     </row>
-    <row customFormat="1" r="172" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row customFormat="1" r="173" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row customFormat="1" r="174" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row customFormat="1" r="175" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row customFormat="1" r="176" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row customFormat="1" r="177" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row customFormat="1" r="178" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row customFormat="1" r="179" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row customFormat="1" r="180" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row customFormat="1" r="181" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row customFormat="1" r="182" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row customFormat="1" r="183" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row customFormat="1" r="184" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row customFormat="1" r="185" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row customFormat="1" r="186" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row customFormat="1" r="187" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row customFormat="1" r="188" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row customFormat="1" r="189" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row customFormat="1" r="190" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row customFormat="1" r="191" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row customFormat="1" r="192" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row customFormat="1" r="193" spans="1:20" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="194" spans="1:20" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="195" spans="1:20" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="196" spans="1:20" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="197" spans="1:20" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="198" spans="1:20" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="199" spans="1:20" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="200" spans="1:20" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="201" spans="1:20" x14ac:dyDescent="0.25"/>
+    <row r="182" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45161946-8007-4864-ACE1-D6F40DFE7EA8}">
+  <dimension ref="A1:T201"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="72" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18.42578125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D2" t="s">
+        <v>573</v>
+      </c>
+      <c r="E2" t="s">
+        <v>574</v>
+      </c>
+      <c r="F2" t="s">
+        <v>575</v>
+      </c>
+      <c r="G2" t="s">
+        <v>576</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="I2" t="s">
+        <v>582</v>
+      </c>
+      <c r="J2" t="s">
+        <v>581</v>
+      </c>
+      <c r="K2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="164" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="165" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="167" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="168" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="172" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="173" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="174" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="175" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="176" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="177" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="178" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="179" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="180" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="181" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="182" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{5EA1F0BD-D590-44B6-98BE-2B8E872AD650}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E02BC914-C706-4C03-8F98-202CA7BA1D18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:801_{E02BC914-C706-4C03-8F98-202CA7BA1D18}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="15660" windowHeight="11820" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}"/>
+    <workbookView windowHeight="11820" windowWidth="15660" xWindow="780" xr2:uid="{FF52DB76-C817-42DB-890D-C15C61C74666}" yWindow="780"/>
   </bookViews>
   <sheets>
-    <sheet name="PegaTestData" sheetId="1" r:id="rId1"/>
-    <sheet name="PegaTestDataDMP" sheetId="2" r:id="rId2"/>
-    <sheet name="PegaTestDataCalcNBA" sheetId="3" r:id="rId3"/>
+    <sheet name="PegaTestData" r:id="rId1" sheetId="1"/>
+    <sheet name="PegaTestDataDMP" r:id="rId2" sheetId="2"/>
+    <sheet name="PegaTestDataCalcNBA" r:id="rId3" sheetId="3"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1:E18"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="583">
   <si>
     <t>NBACampaignName</t>
   </si>
@@ -1778,6 +1778,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1825,20 +1826,20 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1855,10 +1856,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1893,7 +1894,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1945,7 +1946,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2056,21 +2057,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2087,7 +2088,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2139,15 +2140,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F0B5D7-FA7D-4869-B85C-A65D364621F0}">
-  <dimension ref="A1:W201"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F0B5D7-FA7D-4869-B85C-A65D364621F0}">
+  <dimension ref="A1:X201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
@@ -2155,30 +2156,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="4" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="22.42578125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="19.140625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="20" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="33.140625" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="33" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="38.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="2" max="4" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="38.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -2249,7 +2250,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="2" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -2320,906 +2321,906 @@
         <v>382</v>
       </c>
     </row>
-    <row r="3" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="64" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="66" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="69" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="70" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="71" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="72" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="73" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="76" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="79" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="80" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="81" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="84" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="85" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="86" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="87" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="88" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="89" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="90" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="91" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="92" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="93" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="94" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="95" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="96" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="97" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="98" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="99" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="100" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="101" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="102" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="103" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="104" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="105" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="106" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="107" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="108" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="109" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="110" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="111" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="112" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="113" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="114" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="115" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="116" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="117" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="118" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="119" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="120" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="121" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="122" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="123" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="124" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="125" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="126" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="127" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="128" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="129" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="129" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="130" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="131" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="131" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="132" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="132" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="133" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="133" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="134" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="134" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="135" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="135" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="136" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="136" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="137" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="137" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="138" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="138" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="139" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="139" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="140" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="140" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="141" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="141" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="142" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="142" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="143" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="143" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="144" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="144" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="145" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="145" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="146" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="146" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="147" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="147" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="148" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="148" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="149" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="149" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="150" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="150" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="151" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="151" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="152" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="152" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="153" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="153" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="154" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="154" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="155" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="155" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="156" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="156" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="157" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="157" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="158" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="158" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="159" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="159" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="160" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="160" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="161" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="161" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="162" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="162" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="163" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="163" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="164" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="164" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="165" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="165" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="166" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="166" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="167" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="167" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="168" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="168" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="169" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="169" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="170" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="170" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="171" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="171" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="172" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="172" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="173" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="173" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="174" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="174" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="175" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="175" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="176" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="176" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="177" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="178" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="179" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="180" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="181" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="182" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="183" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="184" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="185" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="186" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="187" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="188" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="189" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="190" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="191" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="192" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="193" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="194" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="195" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="196" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="197" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="198" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="199" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="200" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="201" spans="1:23" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C84B9F4-5514-4F31-AE40-96F2A830C6FA}">
-  <dimension ref="A1:T201"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C84B9F4-5514-4F31-AE40-96F2A830C6FA}">
+  <dimension ref="A1:D201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD13"/>
@@ -3227,12 +3228,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -3243,9 +3244,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -3254,930 +3255,930 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="9" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="10" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="12" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="13" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="14" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="15" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="16" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="17" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="18" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="21" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="22" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="23" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="25" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="26" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="27" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="28" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="29" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="30" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="31" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="32" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="33" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="34" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="35" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="36" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="37" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="38" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="39" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="40" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="41" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="42" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="43" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="44" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="45" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="46" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="47" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="48" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="49" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="50" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="51" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="52" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="53" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="54" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="55" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="56" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="57" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="58" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="59" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="60" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="61" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="62" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="63" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="64" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="65" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="66" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="67" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="68" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="69" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="70" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="71" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="72" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="73" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="74" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="75" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="76" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="77" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="78" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="79" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="80" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="81" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="82" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="83" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="84" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="85" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="86" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="87" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="88" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="89" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="90" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="91" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="92" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="93" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="94" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="95" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="96" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="97" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="98" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="99" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="100" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="101" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="102" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="103" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="104" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="105" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="106" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="107" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="108" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="109" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="110" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="111" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="112" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="113" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="114" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="115" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="116" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="117" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="118" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="119" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="120" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="121" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="122" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="123" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="124" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="125" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="126" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="127" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="128" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="129" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="130" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="131" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="132" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="133" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="134" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="135" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="136" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="137" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="138" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="139" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="140" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="141" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="142" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="143" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="144" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="145" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="146" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="147" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="148" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="149" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="150" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="151" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="152" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="153" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="154" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="155" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="156" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="157" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="158" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="159" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="160" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="161" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="162" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="163" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="164" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="165" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="166" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="167" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="168" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="169" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="170" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="171" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="172" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="173" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="174" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="175" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="176" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="177" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="178" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="179" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="180" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="181" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="182" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="182" spans="1:20" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="183" spans="1:20" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="184" spans="1:20" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="185" spans="1:20" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="186" spans="1:20" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="187" spans="1:20" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="188" spans="1:20" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="189" spans="1:20" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="190" spans="1:20" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="191" spans="1:20" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="192" spans="1:20" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="193" spans="1:20" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="194" spans="1:20" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="195" spans="1:20" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="196" spans="1:20" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="197" spans="1:20" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="198" spans="1:20" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="199" spans="1:20" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="200" spans="1:20" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="201" spans="1:20" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45161946-8007-4864-ACE1-D6F40DFE7EA8}">
-  <dimension ref="A1:T201"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45161946-8007-4864-ACE1-D6F40DFE7EA8}">
+  <dimension ref="A1:L201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -4185,20 +4186,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="72" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="72.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="18.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>391</v>
       </c>
@@ -4233,7 +4234,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="2" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>393</v>
       </c>
@@ -4268,925 +4269,925 @@
         <v>581</v>
       </c>
     </row>
-    <row r="3" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="4" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="5" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="6" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="7" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="8" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="9" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="11" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="12" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="13" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="14" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="15" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="16" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="17" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="18" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="19" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="20" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="21" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="22" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="23" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="24" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="25" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="26" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="27" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="28" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="29" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="30" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="31" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="32" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="33" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="34" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="35" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="36" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="37" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="38" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="39" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="40" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="41" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="42" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="43" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="44" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="45" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="46" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="47" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="48" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="49" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="50" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="51" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="52" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="53" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="54" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="55" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="56" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="57" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="58" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="59" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="60" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="61" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="62" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="63" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="64" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="65" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="66" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="67" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="68" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="69" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="70" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="71" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="72" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="73" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="74" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="75" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="76" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="77" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="78" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="79" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="80" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="81" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="82" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="83" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="84" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="85" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="86" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="87" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="88" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="89" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="90" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="91" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="92" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="93" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="94" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="95" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="96" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="97" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="98" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="99" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="100" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="101" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="102" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="103" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="104" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="105" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="106" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="107" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="108" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="109" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="110" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="111" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="112" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="113" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="114" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="115" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="116" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="117" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="118" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="119" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="120" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="121" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="122" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="123" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="124" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="125" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="126" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="127" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="128" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="129" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="130" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="131" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="132" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="133" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="134" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="135" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="136" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="137" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="138" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="139" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="140" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="141" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="142" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="143" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="144" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="145" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="146" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="147" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="148" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="149" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="150" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="151" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="152" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="153" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="154" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="155" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="156" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="157" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="158" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="159" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="160" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="161" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="162" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="163" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="164" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="165" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="166" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="167" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="168" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="169" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="170" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="171" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="172" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="173" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="174" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="175" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="176" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="177" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="178" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="179" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="180" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="181" spans="1:20" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="182" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="182" spans="1:20" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="183" spans="1:20" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="184" spans="1:20" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="185" spans="1:20" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="186" spans="1:20" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="187" spans="1:20" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="188" spans="1:20" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="189" spans="1:20" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="190" spans="1:20" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="191" spans="1:20" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="192" spans="1:20" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="193" spans="1:20" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="194" spans="1:20" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="195" spans="1:20" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="196" spans="1:20" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="197" spans="1:20" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="198" spans="1:20" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="199" spans="1:20" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="200" spans="1:20" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="201" spans="1:20" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{5EA1F0BD-D590-44B6-98BE-2B8E872AD650}"/>
+    <hyperlink r:id="rId1" ref="H2" xr:uid="{5EA1F0BD-D590-44B6-98BE-2B8E872AD650}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaTestData.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="583">
   <si>
     <t>NBACampaignName</t>
   </si>
@@ -2252,13 +2252,13 @@
     </row>
     <row customFormat="1" r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
